--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,2449 +483,2449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.9189506</v>
+        <v>100.06547679</v>
       </c>
       <c r="C2" t="n">
-        <v>99.30905538</v>
+        <v>100.75968072</v>
       </c>
       <c r="D2" t="n">
-        <v>100.610130999999</v>
+        <v>100.35269656</v>
       </c>
       <c r="E2" t="n">
-        <v>99.87010875999989</v>
+        <v>100.5453474</v>
       </c>
       <c r="F2" t="n">
-        <v>100.112742999999</v>
+        <v>100.08271599</v>
       </c>
       <c r="G2" t="n">
-        <v>99.5869945</v>
+        <v>100.75347226</v>
       </c>
       <c r="H2" t="n">
-        <v>100.077269799999</v>
+        <v>100.19388735</v>
       </c>
       <c r="I2" t="n">
-        <v>100.5778315</v>
+        <v>99.57082235</v>
       </c>
       <c r="J2" t="n">
-        <v>99.4172175799999</v>
+        <v>101.38385177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.98693038</v>
+        <v>100.21356232</v>
       </c>
       <c r="C3" t="n">
-        <v>100.0030423</v>
+        <v>101.63496109</v>
       </c>
       <c r="D3" t="n">
-        <v>100.4220061</v>
+        <v>100.1303689</v>
       </c>
       <c r="E3" t="n">
-        <v>100.1398507</v>
+        <v>101.56601863</v>
       </c>
       <c r="F3" t="n">
-        <v>100.1800905</v>
+        <v>100.14632923</v>
       </c>
       <c r="G3" t="n">
-        <v>99.59010667</v>
+        <v>100.68637929</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0123411</v>
+        <v>100.1754257</v>
       </c>
       <c r="I3" t="n">
-        <v>100.5689072</v>
+        <v>99.67908982</v>
       </c>
       <c r="J3" t="n">
-        <v>100.2388904</v>
+        <v>104.67060308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.5308132</v>
+        <v>99.28224117000001</v>
       </c>
       <c r="C4" t="n">
-        <v>99.60985474</v>
+        <v>100.33069864</v>
       </c>
       <c r="D4" t="n">
-        <v>100.6023605</v>
+        <v>100.30567166</v>
       </c>
       <c r="E4" t="n">
-        <v>100.2144979</v>
+        <v>99.5747622</v>
       </c>
       <c r="F4" t="n">
-        <v>100.1415456</v>
+        <v>100.3926904</v>
       </c>
       <c r="G4" t="n">
-        <v>100.0761642</v>
+        <v>99.08475876999999</v>
       </c>
       <c r="H4" t="n">
-        <v>100.1727908</v>
+        <v>99.77556687000001</v>
       </c>
       <c r="I4" t="n">
-        <v>99.73053765</v>
+        <v>100.59149526</v>
       </c>
       <c r="J4" t="n">
-        <v>100.3076553</v>
+        <v>98.73842461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.06547679</v>
+        <v>100.0608517</v>
       </c>
       <c r="C5" t="n">
-        <v>100.75968072</v>
+        <v>100.18492425</v>
       </c>
       <c r="D5" t="n">
-        <v>100.35269656</v>
+        <v>100.40490645</v>
       </c>
       <c r="E5" t="n">
-        <v>100.5453474</v>
+        <v>99.82007344</v>
       </c>
       <c r="F5" t="n">
-        <v>100.08271599</v>
+        <v>100.21703264</v>
       </c>
       <c r="G5" t="n">
-        <v>100.75347226</v>
+        <v>100.13936022</v>
       </c>
       <c r="H5" t="n">
-        <v>100.19388735</v>
+        <v>100.06860564</v>
       </c>
       <c r="I5" t="n">
-        <v>99.57082235</v>
+        <v>100.10663056</v>
       </c>
       <c r="J5" t="n">
-        <v>101.38385177</v>
+        <v>99.01520343999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.21356232</v>
+        <v>100.32609198</v>
       </c>
       <c r="C6" t="n">
-        <v>101.63496109</v>
+        <v>100.3529835</v>
       </c>
       <c r="D6" t="n">
-        <v>100.1303689</v>
+        <v>100.2849639</v>
       </c>
       <c r="E6" t="n">
-        <v>101.56601863</v>
+        <v>99.53389859000001</v>
       </c>
       <c r="F6" t="n">
-        <v>100.14632923</v>
+        <v>100.0990674</v>
       </c>
       <c r="G6" t="n">
-        <v>100.68637929</v>
+        <v>99.87133848000001</v>
       </c>
       <c r="H6" t="n">
-        <v>100.1754257</v>
+        <v>100.01961226</v>
       </c>
       <c r="I6" t="n">
-        <v>99.67908982</v>
+        <v>100.08258205</v>
       </c>
       <c r="J6" t="n">
-        <v>104.67060308</v>
+        <v>98.16282923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.28224117000001</v>
+        <v>100.67166406</v>
       </c>
       <c r="C7" t="n">
-        <v>100.33069864</v>
+        <v>100.13077052</v>
       </c>
       <c r="D7" t="n">
-        <v>100.30567166</v>
+        <v>100.53434983</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5747622</v>
+        <v>99.87192542</v>
       </c>
       <c r="F7" t="n">
-        <v>100.3926904</v>
+        <v>100.12759654</v>
       </c>
       <c r="G7" t="n">
-        <v>99.08475876999999</v>
+        <v>100.40795656</v>
       </c>
       <c r="H7" t="n">
-        <v>99.77556687000001</v>
+        <v>99.99798048</v>
       </c>
       <c r="I7" t="n">
-        <v>100.59149526</v>
+        <v>99.62139139999999</v>
       </c>
       <c r="J7" t="n">
-        <v>98.73842461</v>
+        <v>99.00188439999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.0608517</v>
+        <v>100.15217011</v>
       </c>
       <c r="C8" t="n">
-        <v>100.18492425</v>
+        <v>101.43971731</v>
       </c>
       <c r="D8" t="n">
-        <v>100.40490645</v>
+        <v>100.92680024</v>
       </c>
       <c r="E8" t="n">
-        <v>99.82007344</v>
+        <v>100.27217669</v>
       </c>
       <c r="F8" t="n">
-        <v>100.21703264</v>
+        <v>100.18196627</v>
       </c>
       <c r="G8" t="n">
-        <v>100.13936022</v>
+        <v>101.2130701</v>
       </c>
       <c r="H8" t="n">
-        <v>100.06860564</v>
+        <v>100.03274246</v>
       </c>
       <c r="I8" t="n">
-        <v>100.10663056</v>
+        <v>99.57250888999999</v>
       </c>
       <c r="J8" t="n">
-        <v>99.01520343999999</v>
+        <v>99.97309396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.32609198</v>
+        <v>99.34105047</v>
       </c>
       <c r="C9" t="n">
-        <v>100.3529835</v>
+        <v>100.11504097</v>
       </c>
       <c r="D9" t="n">
-        <v>100.2849639</v>
+        <v>100.33576952</v>
       </c>
       <c r="E9" t="n">
-        <v>99.53389859000001</v>
+        <v>100.05790943</v>
       </c>
       <c r="F9" t="n">
-        <v>100.0990674</v>
+        <v>100.22166218</v>
       </c>
       <c r="G9" t="n">
-        <v>99.87133848000001</v>
+        <v>99.81529981</v>
       </c>
       <c r="H9" t="n">
-        <v>100.01961226</v>
+        <v>99.96915094000001</v>
       </c>
       <c r="I9" t="n">
-        <v>100.08258205</v>
+        <v>100.0212571</v>
       </c>
       <c r="J9" t="n">
-        <v>98.16282923</v>
+        <v>100.28185087</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.67166406</v>
+        <v>100.338346099999</v>
       </c>
       <c r="C10" t="n">
-        <v>100.13077052</v>
+        <v>100.2022477</v>
       </c>
       <c r="D10" t="n">
-        <v>100.53434983</v>
+        <v>100.2371478</v>
       </c>
       <c r="E10" t="n">
-        <v>99.87192542</v>
+        <v>100.6700177</v>
       </c>
       <c r="F10" t="n">
-        <v>100.12759654</v>
+        <v>100.2470395</v>
       </c>
       <c r="G10" t="n">
-        <v>100.40795656</v>
+        <v>101.091696099999</v>
       </c>
       <c r="H10" t="n">
-        <v>99.99798048</v>
+        <v>99.9477131299999</v>
       </c>
       <c r="I10" t="n">
-        <v>99.62139139999999</v>
+        <v>100.939638299999</v>
       </c>
       <c r="J10" t="n">
-        <v>99.00188439999999</v>
+        <v>101.1895834</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.15217011</v>
+        <v>99.9189506</v>
       </c>
       <c r="C11" t="n">
-        <v>101.43971731</v>
+        <v>99.30905538</v>
       </c>
       <c r="D11" t="n">
-        <v>100.92680024</v>
+        <v>100.610130999999</v>
       </c>
       <c r="E11" t="n">
-        <v>100.27217669</v>
+        <v>99.87010875999989</v>
       </c>
       <c r="F11" t="n">
-        <v>100.18196627</v>
+        <v>100.112742999999</v>
       </c>
       <c r="G11" t="n">
-        <v>101.2130701</v>
+        <v>99.5869945</v>
       </c>
       <c r="H11" t="n">
-        <v>100.03274246</v>
+        <v>100.077269799999</v>
       </c>
       <c r="I11" t="n">
-        <v>99.57250888999999</v>
+        <v>100.5778315</v>
       </c>
       <c r="J11" t="n">
-        <v>99.97309396</v>
+        <v>99.4172175799999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.34105047</v>
+        <v>99.98693038</v>
       </c>
       <c r="C12" t="n">
-        <v>100.11504097</v>
+        <v>100.0030423</v>
       </c>
       <c r="D12" t="n">
-        <v>100.33576952</v>
+        <v>100.4220061</v>
       </c>
       <c r="E12" t="n">
-        <v>100.05790943</v>
+        <v>100.1398507</v>
       </c>
       <c r="F12" t="n">
-        <v>100.22166218</v>
+        <v>100.1800905</v>
       </c>
       <c r="G12" t="n">
-        <v>99.81529981</v>
+        <v>99.59010667</v>
       </c>
       <c r="H12" t="n">
-        <v>99.96915094000001</v>
+        <v>100.0123411</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0212571</v>
+        <v>100.5689072</v>
       </c>
       <c r="J12" t="n">
-        <v>100.28185087</v>
+        <v>100.2388904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.338346099999</v>
+        <v>100.5308132</v>
       </c>
       <c r="C13" t="n">
-        <v>100.2022477</v>
+        <v>99.60985474</v>
       </c>
       <c r="D13" t="n">
-        <v>100.2371478</v>
+        <v>100.6023605</v>
       </c>
       <c r="E13" t="n">
-        <v>100.6700177</v>
+        <v>100.2144979</v>
       </c>
       <c r="F13" t="n">
-        <v>100.2470395</v>
+        <v>100.1415456</v>
       </c>
       <c r="G13" t="n">
-        <v>101.091696099999</v>
+        <v>100.0761642</v>
       </c>
       <c r="H13" t="n">
-        <v>99.9477131299999</v>
+        <v>100.1727908</v>
       </c>
       <c r="I13" t="n">
-        <v>100.939638299999</v>
+        <v>99.73053765</v>
       </c>
       <c r="J13" t="n">
-        <v>101.1895834</v>
+        <v>100.3076553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.1979794</v>
+        <v>101.4655763</v>
       </c>
       <c r="C14" t="n">
-        <v>99.7152349</v>
+        <v>101.4919992</v>
       </c>
       <c r="D14" t="n">
-        <v>100.1956979</v>
+        <v>100.8029859</v>
       </c>
       <c r="E14" t="n">
-        <v>100.0848683</v>
+        <v>101.046179</v>
       </c>
       <c r="F14" t="n">
-        <v>100.1861085</v>
+        <v>100.2347478</v>
       </c>
       <c r="G14" t="n">
-        <v>99.54463641</v>
+        <v>102.0273078</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1757801</v>
+        <v>100.3804813</v>
       </c>
       <c r="I14" t="n">
-        <v>100.4784603</v>
+        <v>99.49799487</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0616086</v>
+        <v>101.6788666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.5266671</v>
+        <v>99.4727085</v>
       </c>
       <c r="C15" t="n">
-        <v>99.91748437</v>
+        <v>100.05783441</v>
       </c>
       <c r="D15" t="n">
-        <v>100.1888223</v>
+        <v>100.2677934</v>
       </c>
       <c r="E15" t="n">
-        <v>100.0058176</v>
+        <v>99.81218545999999</v>
       </c>
       <c r="F15" t="n">
-        <v>100.1661035</v>
+        <v>100.45845953</v>
       </c>
       <c r="G15" t="n">
-        <v>99.3226185</v>
+        <v>98.76272317</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0906377</v>
+        <v>99.97293612999999</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5020914</v>
+        <v>99.87884560000001</v>
       </c>
       <c r="J15" t="n">
-        <v>99.74754846</v>
+        <v>99.700577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4006438</v>
+        <v>99.67515224</v>
       </c>
       <c r="C16" t="n">
-        <v>99.86275472</v>
+        <v>100.0059453</v>
       </c>
       <c r="D16" t="n">
-        <v>100.1394093</v>
+        <v>100.4704315</v>
       </c>
       <c r="E16" t="n">
-        <v>100.3165508</v>
+        <v>99.70476527</v>
       </c>
       <c r="F16" t="n">
-        <v>100.1005006</v>
+        <v>100.2580994</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0987982</v>
+        <v>99.77188271999999</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2118539</v>
+        <v>99.98851596</v>
       </c>
       <c r="I16" t="n">
-        <v>99.87969577</v>
+        <v>100.6625836</v>
       </c>
       <c r="J16" t="n">
-        <v>100.7812696</v>
+        <v>98.73050840000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.4655763</v>
+        <v>99.8596369</v>
       </c>
       <c r="C17" t="n">
-        <v>101.4919992</v>
+        <v>100.7967919</v>
       </c>
       <c r="D17" t="n">
-        <v>100.8029859</v>
+        <v>100.7759551</v>
       </c>
       <c r="E17" t="n">
-        <v>101.046179</v>
+        <v>100.1007811</v>
       </c>
       <c r="F17" t="n">
-        <v>100.2347478</v>
+        <v>100.1566781</v>
       </c>
       <c r="G17" t="n">
-        <v>102.0273078</v>
+        <v>100.4357738</v>
       </c>
       <c r="H17" t="n">
-        <v>100.3804813</v>
+        <v>100.2367191</v>
       </c>
       <c r="I17" t="n">
-        <v>99.49799487</v>
+        <v>100.1693263</v>
       </c>
       <c r="J17" t="n">
-        <v>101.6788666</v>
+        <v>99.72565365</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.4727085</v>
+        <v>99.66331674</v>
       </c>
       <c r="C18" t="n">
-        <v>100.05783441</v>
+        <v>99.69527282999999</v>
       </c>
       <c r="D18" t="n">
-        <v>100.2677934</v>
+        <v>100.3783951</v>
       </c>
       <c r="E18" t="n">
-        <v>99.81218545999999</v>
+        <v>99.89704894</v>
       </c>
       <c r="F18" t="n">
-        <v>100.45845953</v>
+        <v>100.1035109</v>
       </c>
       <c r="G18" t="n">
-        <v>98.76272317</v>
+        <v>99.83490569999999</v>
       </c>
       <c r="H18" t="n">
-        <v>99.97293612999999</v>
+        <v>100.1879022</v>
       </c>
       <c r="I18" t="n">
-        <v>99.87884560000001</v>
+        <v>100.1008005</v>
       </c>
       <c r="J18" t="n">
-        <v>99.700577</v>
+        <v>99.64057325</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.67515224</v>
+        <v>99.70792659999999</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0059453</v>
+        <v>100.0547539</v>
       </c>
       <c r="D19" t="n">
-        <v>100.4704315</v>
+        <v>100.3411291</v>
       </c>
       <c r="E19" t="n">
-        <v>99.70476527</v>
+        <v>99.87562140999999</v>
       </c>
       <c r="F19" t="n">
-        <v>100.2580994</v>
+        <v>100.1685929</v>
       </c>
       <c r="G19" t="n">
-        <v>99.77188271999999</v>
+        <v>100.3340526</v>
       </c>
       <c r="H19" t="n">
-        <v>99.98851596</v>
+        <v>100.0550353</v>
       </c>
       <c r="I19" t="n">
-        <v>100.6625836</v>
+        <v>99.73840056</v>
       </c>
       <c r="J19" t="n">
-        <v>98.73050840000001</v>
+        <v>99.39871271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.8596369</v>
+        <v>99.75315045000001</v>
       </c>
       <c r="C20" t="n">
-        <v>100.7967919</v>
+        <v>99.89936564</v>
       </c>
       <c r="D20" t="n">
-        <v>100.7759551</v>
+        <v>100.5260668</v>
       </c>
       <c r="E20" t="n">
-        <v>100.1007811</v>
+        <v>100.1318706</v>
       </c>
       <c r="F20" t="n">
-        <v>100.1566781</v>
+        <v>100.1165893</v>
       </c>
       <c r="G20" t="n">
-        <v>100.4357738</v>
+        <v>101.1783514</v>
       </c>
       <c r="H20" t="n">
-        <v>100.2367191</v>
+        <v>100.0736897</v>
       </c>
       <c r="I20" t="n">
-        <v>100.1693263</v>
+        <v>99.56169663999999</v>
       </c>
       <c r="J20" t="n">
-        <v>99.72565365</v>
+        <v>99.97360068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.66331674</v>
+        <v>100.2804824</v>
       </c>
       <c r="C21" t="n">
-        <v>99.69527282999999</v>
+        <v>100.2291421</v>
       </c>
       <c r="D21" t="n">
-        <v>100.3783951</v>
+        <v>100.8917117</v>
       </c>
       <c r="E21" t="n">
-        <v>99.89704894</v>
+        <v>100.3873892</v>
       </c>
       <c r="F21" t="n">
-        <v>100.1035109</v>
+        <v>100.3519947</v>
       </c>
       <c r="G21" t="n">
-        <v>99.83490569999999</v>
+        <v>99.87028185</v>
       </c>
       <c r="H21" t="n">
-        <v>100.1879022</v>
+        <v>100.0657007</v>
       </c>
       <c r="I21" t="n">
-        <v>100.1008005</v>
+        <v>99.81887652</v>
       </c>
       <c r="J21" t="n">
-        <v>99.64057325</v>
+        <v>100.781958</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.70792659999999</v>
+        <v>100.1094761</v>
       </c>
       <c r="C22" t="n">
-        <v>100.0547539</v>
+        <v>100.2148228</v>
       </c>
       <c r="D22" t="n">
-        <v>100.3411291</v>
+        <v>102.1567242</v>
       </c>
       <c r="E22" t="n">
-        <v>99.87562140999999</v>
+        <v>100.5315787</v>
       </c>
       <c r="F22" t="n">
-        <v>100.1685929</v>
+        <v>100.2949267</v>
       </c>
       <c r="G22" t="n">
-        <v>100.3340526</v>
+        <v>100.8826966</v>
       </c>
       <c r="H22" t="n">
-        <v>100.0550353</v>
+        <v>100.0673363</v>
       </c>
       <c r="I22" t="n">
-        <v>99.73840056</v>
+        <v>100.9456741</v>
       </c>
       <c r="J22" t="n">
-        <v>99.39871271</v>
+        <v>100.3195141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.75315045000001</v>
+        <v>100.1979794</v>
       </c>
       <c r="C23" t="n">
-        <v>99.89936564</v>
+        <v>99.7152349</v>
       </c>
       <c r="D23" t="n">
-        <v>100.5260668</v>
+        <v>100.1956979</v>
       </c>
       <c r="E23" t="n">
-        <v>100.1318706</v>
+        <v>100.0848683</v>
       </c>
       <c r="F23" t="n">
-        <v>100.1165893</v>
+        <v>100.1861085</v>
       </c>
       <c r="G23" t="n">
-        <v>101.1783514</v>
+        <v>99.54463641</v>
       </c>
       <c r="H23" t="n">
-        <v>100.0736897</v>
+        <v>100.1757801</v>
       </c>
       <c r="I23" t="n">
-        <v>99.56169663999999</v>
+        <v>100.4784603</v>
       </c>
       <c r="J23" t="n">
-        <v>99.97360068</v>
+        <v>100.0616086</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.2804824</v>
+        <v>100.5266671</v>
       </c>
       <c r="C24" t="n">
-        <v>100.2291421</v>
+        <v>99.91748437</v>
       </c>
       <c r="D24" t="n">
-        <v>100.8917117</v>
+        <v>100.1888223</v>
       </c>
       <c r="E24" t="n">
-        <v>100.3873892</v>
+        <v>100.0058176</v>
       </c>
       <c r="F24" t="n">
-        <v>100.3519947</v>
+        <v>100.1661035</v>
       </c>
       <c r="G24" t="n">
-        <v>99.87028185</v>
+        <v>99.3226185</v>
       </c>
       <c r="H24" t="n">
-        <v>100.0657007</v>
+        <v>100.0906377</v>
       </c>
       <c r="I24" t="n">
-        <v>99.81887652</v>
+        <v>100.5020914</v>
       </c>
       <c r="J24" t="n">
-        <v>100.781958</v>
+        <v>99.74754846</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.1094761</v>
+        <v>100.4006438</v>
       </c>
       <c r="C25" t="n">
-        <v>100.2148228</v>
+        <v>99.86275472</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1567242</v>
+        <v>100.1394093</v>
       </c>
       <c r="E25" t="n">
-        <v>100.5315787</v>
+        <v>100.3165508</v>
       </c>
       <c r="F25" t="n">
-        <v>100.2949267</v>
+        <v>100.1005006</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8826966</v>
+        <v>100.0987982</v>
       </c>
       <c r="H25" t="n">
-        <v>100.0673363</v>
+        <v>100.2118539</v>
       </c>
       <c r="I25" t="n">
-        <v>100.9456741</v>
+        <v>99.87969577</v>
       </c>
       <c r="J25" t="n">
-        <v>100.3195141</v>
+        <v>100.7812696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.62884999</v>
+        <v>100.4450591</v>
       </c>
       <c r="C26" t="n">
-        <v>100.31116197</v>
+        <v>100.7928007</v>
       </c>
       <c r="D26" t="n">
-        <v>100.16121393</v>
+        <v>100.1884061</v>
       </c>
       <c r="E26" t="n">
-        <v>100.17241928</v>
+        <v>100.6186622</v>
       </c>
       <c r="F26" t="n">
-        <v>100.13571234</v>
+        <v>100.101488</v>
       </c>
       <c r="G26" t="n">
-        <v>99.93512481</v>
+        <v>100.5870039</v>
       </c>
       <c r="H26" t="n">
-        <v>100.08287699</v>
+        <v>100.2864496</v>
       </c>
       <c r="I26" t="n">
-        <v>100.74606179</v>
+        <v>99.56710438</v>
       </c>
       <c r="J26" t="n">
-        <v>99.95617086</v>
+        <v>101.5623789</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.95181291999999</v>
+        <v>100.9364252</v>
       </c>
       <c r="C27" t="n">
-        <v>100.15650517</v>
+        <v>100.3215856</v>
       </c>
       <c r="D27" t="n">
-        <v>100.20035798</v>
+        <v>100.1275895</v>
       </c>
       <c r="E27" t="n">
-        <v>99.63650997000001</v>
+        <v>101.2792664</v>
       </c>
       <c r="F27" t="n">
-        <v>100.03048894</v>
+        <v>99.9539206</v>
       </c>
       <c r="G27" t="n">
-        <v>99.31827397000001</v>
+        <v>102.1757425</v>
       </c>
       <c r="H27" t="n">
-        <v>100.06300375</v>
+        <v>100.3657541</v>
       </c>
       <c r="I27" t="n">
-        <v>100.38719352</v>
+        <v>99.46600174</v>
       </c>
       <c r="J27" t="n">
-        <v>99.24022576</v>
+        <v>103.1626249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.07826305</v>
+        <v>98.42207476</v>
       </c>
       <c r="C28" t="n">
-        <v>99.97513472999999</v>
+        <v>99.62661743</v>
       </c>
       <c r="D28" t="n">
-        <v>100.11537539</v>
+        <v>100.2111916</v>
       </c>
       <c r="E28" t="n">
-        <v>100.02313431</v>
+        <v>98.86886543999999</v>
       </c>
       <c r="F28" t="n">
-        <v>99.96716536</v>
+        <v>100.3119869</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97571464000001</v>
+        <v>97.93070256</v>
       </c>
       <c r="H28" t="n">
-        <v>100.1937007</v>
+        <v>99.69390663</v>
       </c>
       <c r="I28" t="n">
-        <v>100.07161379</v>
+        <v>100.7088208</v>
       </c>
       <c r="J28" t="n">
-        <v>100.8106413</v>
+        <v>97.2785401</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.4450591</v>
+        <v>100.6664276</v>
       </c>
       <c r="C29" t="n">
-        <v>100.7928007</v>
+        <v>100.4872472</v>
       </c>
       <c r="D29" t="n">
-        <v>100.1884061</v>
+        <v>100.1923177</v>
       </c>
       <c r="E29" t="n">
-        <v>100.6186622</v>
+        <v>99.8</v>
       </c>
       <c r="F29" t="n">
-        <v>100.101488</v>
+        <v>100.0903125</v>
       </c>
       <c r="G29" t="n">
-        <v>100.5870039</v>
+        <v>100.2852608</v>
       </c>
       <c r="H29" t="n">
-        <v>100.2864496</v>
+        <v>100.1724532</v>
       </c>
       <c r="I29" t="n">
-        <v>99.56710438</v>
+        <v>100.1870313</v>
       </c>
       <c r="J29" t="n">
-        <v>101.5623789</v>
+        <v>98.83111375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.9364252</v>
+        <v>100.3224812</v>
       </c>
       <c r="C30" t="n">
-        <v>100.3215856</v>
+        <v>99.80788843000001</v>
       </c>
       <c r="D30" t="n">
-        <v>100.1275895</v>
+        <v>100.2194686</v>
       </c>
       <c r="E30" t="n">
-        <v>101.2792664</v>
+        <v>99.8</v>
       </c>
       <c r="F30" t="n">
-        <v>99.9539206</v>
+        <v>100.0841095</v>
       </c>
       <c r="G30" t="n">
-        <v>102.1757425</v>
+        <v>99.69627172</v>
       </c>
       <c r="H30" t="n">
-        <v>100.3657541</v>
+        <v>100.1599828</v>
       </c>
       <c r="I30" t="n">
-        <v>99.46600174</v>
+        <v>100.1747454</v>
       </c>
       <c r="J30" t="n">
-        <v>103.1626249</v>
+        <v>99.21081174</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.42207476</v>
+        <v>100.29478463</v>
       </c>
       <c r="C31" t="n">
-        <v>99.62661743</v>
+        <v>99.96923017</v>
       </c>
       <c r="D31" t="n">
-        <v>100.2111916</v>
+        <v>100.20938049</v>
       </c>
       <c r="E31" t="n">
-        <v>98.86886543999999</v>
+        <v>99.95038137</v>
       </c>
       <c r="F31" t="n">
-        <v>100.3119869</v>
+        <v>100.19239934</v>
       </c>
       <c r="G31" t="n">
-        <v>97.93070256</v>
+        <v>100.24684182</v>
       </c>
       <c r="H31" t="n">
-        <v>99.69390663</v>
+        <v>100.11021102</v>
       </c>
       <c r="I31" t="n">
-        <v>100.7088208</v>
+        <v>99.72793359000001</v>
       </c>
       <c r="J31" t="n">
-        <v>97.2785401</v>
+        <v>99.45980314000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.6664276</v>
+        <v>100.36244234</v>
       </c>
       <c r="C32" t="n">
-        <v>100.4872472</v>
+        <v>100.31003354</v>
       </c>
       <c r="D32" t="n">
-        <v>100.1923177</v>
+        <v>100.21692683</v>
       </c>
       <c r="E32" t="n">
-        <v>99.8</v>
+        <v>100.36069065</v>
       </c>
       <c r="F32" t="n">
-        <v>100.0903125</v>
+        <v>100.24760129</v>
       </c>
       <c r="G32" t="n">
-        <v>100.2852608</v>
+        <v>101.78210197</v>
       </c>
       <c r="H32" t="n">
-        <v>100.1724532</v>
+        <v>100.14856364</v>
       </c>
       <c r="I32" t="n">
-        <v>100.1870313</v>
+        <v>99.65716591</v>
       </c>
       <c r="J32" t="n">
-        <v>98.83111375</v>
+        <v>100.16062351</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.3224812</v>
+        <v>99.94823941</v>
       </c>
       <c r="C33" t="n">
-        <v>99.80788843000001</v>
+        <v>100.14814527</v>
       </c>
       <c r="D33" t="n">
-        <v>100.2194686</v>
+        <v>100.43784874</v>
       </c>
       <c r="E33" t="n">
-        <v>99.8</v>
+        <v>100.62015665</v>
       </c>
       <c r="F33" t="n">
-        <v>100.0841095</v>
+        <v>100.48478586</v>
       </c>
       <c r="G33" t="n">
-        <v>99.69627172</v>
+        <v>100.18064262</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1599828</v>
+        <v>100.11507638</v>
       </c>
       <c r="I33" t="n">
-        <v>100.1747454</v>
+        <v>99.97396704000001</v>
       </c>
       <c r="J33" t="n">
-        <v>99.21081174</v>
+        <v>101.58201217</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.29478463</v>
+        <v>100.2084185</v>
       </c>
       <c r="C34" t="n">
-        <v>99.96923017</v>
+        <v>99.74673937999999</v>
       </c>
       <c r="D34" t="n">
-        <v>100.20938049</v>
+        <v>100.22090001</v>
       </c>
       <c r="E34" t="n">
-        <v>99.95038137</v>
+        <v>100.66415225</v>
       </c>
       <c r="F34" t="n">
-        <v>100.19239934</v>
+        <v>100.3553928</v>
       </c>
       <c r="G34" t="n">
-        <v>100.24684182</v>
+        <v>100.34555699</v>
       </c>
       <c r="H34" t="n">
-        <v>100.11021102</v>
+        <v>100.1313667</v>
       </c>
       <c r="I34" t="n">
-        <v>99.72793359000001</v>
+        <v>100.80751823</v>
       </c>
       <c r="J34" t="n">
-        <v>99.45980314000001</v>
+        <v>101.51046074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.36244234</v>
+        <v>100.62884999</v>
       </c>
       <c r="C35" t="n">
-        <v>100.31003354</v>
+        <v>100.31116197</v>
       </c>
       <c r="D35" t="n">
-        <v>100.21692683</v>
+        <v>100.16121393</v>
       </c>
       <c r="E35" t="n">
-        <v>100.36069065</v>
+        <v>100.17241928</v>
       </c>
       <c r="F35" t="n">
-        <v>100.24760129</v>
+        <v>100.13571234</v>
       </c>
       <c r="G35" t="n">
-        <v>101.78210197</v>
+        <v>99.93512481</v>
       </c>
       <c r="H35" t="n">
-        <v>100.14856364</v>
+        <v>100.08287699</v>
       </c>
       <c r="I35" t="n">
-        <v>99.65716591</v>
+        <v>100.74606179</v>
       </c>
       <c r="J35" t="n">
-        <v>100.16062351</v>
+        <v>99.95617086</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.94823941</v>
+        <v>98.95181291999999</v>
       </c>
       <c r="C36" t="n">
-        <v>100.14814527</v>
+        <v>100.15650517</v>
       </c>
       <c r="D36" t="n">
-        <v>100.43784874</v>
+        <v>100.20035798</v>
       </c>
       <c r="E36" t="n">
-        <v>100.62015665</v>
+        <v>99.63650997000001</v>
       </c>
       <c r="F36" t="n">
-        <v>100.48478586</v>
+        <v>100.03048894</v>
       </c>
       <c r="G36" t="n">
-        <v>100.18064262</v>
+        <v>99.31827397000001</v>
       </c>
       <c r="H36" t="n">
-        <v>100.11507638</v>
+        <v>100.06300375</v>
       </c>
       <c r="I36" t="n">
-        <v>99.97396704000001</v>
+        <v>100.38719352</v>
       </c>
       <c r="J36" t="n">
-        <v>101.58201217</v>
+        <v>99.24022576</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.2084185</v>
+        <v>98.07826305</v>
       </c>
       <c r="C37" t="n">
-        <v>99.74673937999999</v>
+        <v>99.97513472999999</v>
       </c>
       <c r="D37" t="n">
-        <v>100.22090001</v>
+        <v>100.11537539</v>
       </c>
       <c r="E37" t="n">
-        <v>100.66415225</v>
+        <v>100.02313431</v>
       </c>
       <c r="F37" t="n">
-        <v>100.3553928</v>
+        <v>99.96716536</v>
       </c>
       <c r="G37" t="n">
-        <v>100.34555699</v>
+        <v>99.97571464000001</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1313667</v>
+        <v>100.1937007</v>
       </c>
       <c r="I37" t="n">
-        <v>100.80751823</v>
+        <v>100.07161379</v>
       </c>
       <c r="J37" t="n">
-        <v>101.51046074</v>
+        <v>100.8106413</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.07965066</v>
+        <v>99.89328442</v>
       </c>
       <c r="C38" t="n">
-        <v>100.04816471</v>
+        <v>101.35583128</v>
       </c>
       <c r="D38" t="n">
-        <v>100.05881106</v>
+        <v>100.32207103</v>
       </c>
       <c r="E38" t="n">
-        <v>100.79783522</v>
+        <v>100.52197228</v>
       </c>
       <c r="F38" t="n">
-        <v>99.97503167000001</v>
+        <v>99.96859904</v>
       </c>
       <c r="G38" t="n">
-        <v>100.14378668</v>
+        <v>101.20018234</v>
       </c>
       <c r="H38" t="n">
-        <v>100.0998976</v>
+        <v>100.3929154</v>
       </c>
       <c r="I38" t="n">
-        <v>100.28003387</v>
+        <v>99.69223159000001</v>
       </c>
       <c r="J38" t="n">
-        <v>102.42957732</v>
+        <v>101.14164558</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.65449303</v>
+        <v>100.95033009</v>
       </c>
       <c r="C39" t="n">
-        <v>99.09760831</v>
+        <v>100.15347435</v>
       </c>
       <c r="D39" t="n">
-        <v>100.08220425</v>
+        <v>100.22489948</v>
       </c>
       <c r="E39" t="n">
-        <v>100.30708759</v>
+        <v>101.03566505</v>
       </c>
       <c r="F39" t="n">
-        <v>99.92921509999999</v>
+        <v>100.14625073</v>
       </c>
       <c r="G39" t="n">
-        <v>99.1316417</v>
+        <v>101.51902022</v>
       </c>
       <c r="H39" t="n">
-        <v>99.88643605</v>
+        <v>100.08100767</v>
       </c>
       <c r="I39" t="n">
-        <v>100.34743193</v>
+        <v>99.8654837</v>
       </c>
       <c r="J39" t="n">
-        <v>101.48884506</v>
+        <v>102.37344389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.14736838</v>
+        <v>99.70565956</v>
       </c>
       <c r="C40" t="n">
-        <v>99.89108679</v>
+        <v>99.55788538</v>
       </c>
       <c r="D40" t="n">
-        <v>100.14678146</v>
+        <v>100.14702398</v>
       </c>
       <c r="E40" t="n">
-        <v>100.02574328</v>
+        <v>99.61426899999999</v>
       </c>
       <c r="F40" t="n">
-        <v>100.05129886</v>
+        <v>100.16818705</v>
       </c>
       <c r="G40" t="n">
-        <v>100.05474367</v>
+        <v>98.05288727</v>
       </c>
       <c r="H40" t="n">
-        <v>100.13715552</v>
+        <v>99.58451071</v>
       </c>
       <c r="I40" t="n">
-        <v>99.77997209999999</v>
+        <v>100.7367413</v>
       </c>
       <c r="J40" t="n">
-        <v>99.98083195</v>
+        <v>99.36151726</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.89328442</v>
+        <v>100.06995417</v>
       </c>
       <c r="C41" t="n">
-        <v>101.35583128</v>
+        <v>100.44419451</v>
       </c>
       <c r="D41" t="n">
-        <v>100.32207103</v>
+        <v>100.1016798</v>
       </c>
       <c r="E41" t="n">
-        <v>100.52197228</v>
+        <v>100.06142415</v>
       </c>
       <c r="F41" t="n">
-        <v>99.96859904</v>
+        <v>100.06082514</v>
       </c>
       <c r="G41" t="n">
-        <v>101.20018234</v>
+        <v>100.41166509</v>
       </c>
       <c r="H41" t="n">
-        <v>100.3929154</v>
+        <v>100.08523257</v>
       </c>
       <c r="I41" t="n">
-        <v>99.69223159000001</v>
+        <v>100.03728396</v>
       </c>
       <c r="J41" t="n">
-        <v>101.14164558</v>
+        <v>99.8715911</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.95033009</v>
+        <v>99.94449288</v>
       </c>
       <c r="C42" t="n">
-        <v>100.15347435</v>
+        <v>100.02919339</v>
       </c>
       <c r="D42" t="n">
-        <v>100.22489948</v>
+        <v>100.16291069</v>
       </c>
       <c r="E42" t="n">
-        <v>101.03566505</v>
+        <v>100.02930331</v>
       </c>
       <c r="F42" t="n">
-        <v>100.14625073</v>
+        <v>99.95665036</v>
       </c>
       <c r="G42" t="n">
-        <v>101.51902022</v>
+        <v>99.78510199999999</v>
       </c>
       <c r="H42" t="n">
-        <v>100.08100767</v>
+        <v>100.02521881</v>
       </c>
       <c r="I42" t="n">
-        <v>99.8654837</v>
+        <v>100.09835765</v>
       </c>
       <c r="J42" t="n">
-        <v>102.37344389</v>
+        <v>100.15779934</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.70565956</v>
+        <v>99.28882451</v>
       </c>
       <c r="C43" t="n">
-        <v>99.55788538</v>
+        <v>100.59815764</v>
       </c>
       <c r="D43" t="n">
-        <v>100.14702398</v>
+        <v>100.34675184</v>
       </c>
       <c r="E43" t="n">
-        <v>99.61426899999999</v>
+        <v>99.90496865</v>
       </c>
       <c r="F43" t="n">
-        <v>100.16818705</v>
+        <v>100.03291557</v>
       </c>
       <c r="G43" t="n">
-        <v>98.05288727</v>
+        <v>100.04130408</v>
       </c>
       <c r="H43" t="n">
-        <v>99.58451071</v>
+        <v>99.92908654</v>
       </c>
       <c r="I43" t="n">
-        <v>100.7367413</v>
+        <v>99.81678205999999</v>
       </c>
       <c r="J43" t="n">
-        <v>99.36151726</v>
+        <v>99.82366924999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.06995417</v>
+        <v>100.11896619</v>
       </c>
       <c r="C44" t="n">
-        <v>100.44419451</v>
+        <v>100.94172019</v>
       </c>
       <c r="D44" t="n">
-        <v>100.1016798</v>
+        <v>100.33292797</v>
       </c>
       <c r="E44" t="n">
-        <v>100.06142415</v>
+        <v>100.43205183</v>
       </c>
       <c r="F44" t="n">
-        <v>100.06082514</v>
+        <v>100.12048855</v>
       </c>
       <c r="G44" t="n">
-        <v>100.41166509</v>
+        <v>101.59929186</v>
       </c>
       <c r="H44" t="n">
-        <v>100.08523257</v>
+        <v>100.14911319</v>
       </c>
       <c r="I44" t="n">
-        <v>100.03728396</v>
+        <v>99.61690563000001</v>
       </c>
       <c r="J44" t="n">
-        <v>99.8715911</v>
+        <v>100.57585865</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.94449288</v>
+        <v>99.76585082</v>
       </c>
       <c r="C45" t="n">
-        <v>100.02919339</v>
+        <v>101.46250696</v>
       </c>
       <c r="D45" t="n">
-        <v>100.16291069</v>
+        <v>100.18271187</v>
       </c>
       <c r="E45" t="n">
-        <v>100.02930331</v>
+        <v>100.63208084</v>
       </c>
       <c r="F45" t="n">
-        <v>99.95665036</v>
+        <v>100.13034143</v>
       </c>
       <c r="G45" t="n">
-        <v>99.78510199999999</v>
+        <v>100.03050595</v>
       </c>
       <c r="H45" t="n">
-        <v>100.02521881</v>
+        <v>99.97699334000001</v>
       </c>
       <c r="I45" t="n">
-        <v>100.09835765</v>
+        <v>99.81837796000001</v>
       </c>
       <c r="J45" t="n">
-        <v>100.15779934</v>
+        <v>101.95460602</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.28882451</v>
+        <v>99.57579953</v>
       </c>
       <c r="C46" t="n">
-        <v>100.59815764</v>
+        <v>100.86911417</v>
       </c>
       <c r="D46" t="n">
-        <v>100.34675184</v>
+        <v>100.05863805</v>
       </c>
       <c r="E46" t="n">
-        <v>99.90496865</v>
+        <v>100.74254399</v>
       </c>
       <c r="F46" t="n">
-        <v>100.03291557</v>
+        <v>100.04430125</v>
       </c>
       <c r="G46" t="n">
-        <v>100.04130408</v>
+        <v>99.97856197</v>
       </c>
       <c r="H46" t="n">
-        <v>99.92908654</v>
+        <v>100.00244519</v>
       </c>
       <c r="I46" t="n">
-        <v>99.81678205999999</v>
+        <v>100.88744419</v>
       </c>
       <c r="J46" t="n">
-        <v>99.82366924999999</v>
+        <v>102.25430916</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.11896619</v>
+        <v>100.07965066</v>
       </c>
       <c r="C47" t="n">
-        <v>100.94172019</v>
+        <v>100.04816471</v>
       </c>
       <c r="D47" t="n">
-        <v>100.33292797</v>
+        <v>100.05881106</v>
       </c>
       <c r="E47" t="n">
-        <v>100.43205183</v>
+        <v>100.79783522</v>
       </c>
       <c r="F47" t="n">
-        <v>100.12048855</v>
+        <v>99.97503167000001</v>
       </c>
       <c r="G47" t="n">
-        <v>101.59929186</v>
+        <v>100.14378668</v>
       </c>
       <c r="H47" t="n">
-        <v>100.14911319</v>
+        <v>100.0998976</v>
       </c>
       <c r="I47" t="n">
-        <v>99.61690563000001</v>
+        <v>100.28003387</v>
       </c>
       <c r="J47" t="n">
-        <v>100.57585865</v>
+        <v>102.42957732</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.76585082</v>
+        <v>99.65449303</v>
       </c>
       <c r="C48" t="n">
-        <v>101.46250696</v>
+        <v>99.09760831</v>
       </c>
       <c r="D48" t="n">
-        <v>100.18271187</v>
+        <v>100.08220425</v>
       </c>
       <c r="E48" t="n">
-        <v>100.63208084</v>
+        <v>100.30708759</v>
       </c>
       <c r="F48" t="n">
-        <v>100.13034143</v>
+        <v>99.92921509999999</v>
       </c>
       <c r="G48" t="n">
-        <v>100.03050595</v>
+        <v>99.1316417</v>
       </c>
       <c r="H48" t="n">
-        <v>99.97699334000001</v>
+        <v>99.88643605</v>
       </c>
       <c r="I48" t="n">
-        <v>99.81837796000001</v>
+        <v>100.34743193</v>
       </c>
       <c r="J48" t="n">
-        <v>101.95460602</v>
+        <v>101.48884506</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.57579953</v>
+        <v>100.14736838</v>
       </c>
       <c r="C49" t="n">
-        <v>100.86911417</v>
+        <v>99.89108679</v>
       </c>
       <c r="D49" t="n">
-        <v>100.05863805</v>
+        <v>100.14678146</v>
       </c>
       <c r="E49" t="n">
-        <v>100.74254399</v>
+        <v>100.02574328</v>
       </c>
       <c r="F49" t="n">
-        <v>100.04430125</v>
+        <v>100.05129886</v>
       </c>
       <c r="G49" t="n">
-        <v>99.97856197</v>
+        <v>100.05474367</v>
       </c>
       <c r="H49" t="n">
-        <v>100.00244519</v>
+        <v>100.13715552</v>
       </c>
       <c r="I49" t="n">
-        <v>100.88744419</v>
+        <v>99.77997209999999</v>
       </c>
       <c r="J49" t="n">
-        <v>102.25430916</v>
+        <v>99.98083195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.8</v>
+        <v>101.53588276</v>
       </c>
       <c r="C50" t="n">
-        <v>98.3</v>
+        <v>101.78966219</v>
       </c>
       <c r="D50" t="n">
-        <v>100.1</v>
+        <v>100.54109069</v>
       </c>
       <c r="E50" t="n">
-        <v>99.7</v>
+        <v>101.41045282</v>
       </c>
       <c r="F50" t="n">
-        <v>100.1</v>
+        <v>99.94638833</v>
       </c>
       <c r="G50" t="n">
-        <v>100.7</v>
+        <v>101.74493121</v>
       </c>
       <c r="H50" t="n">
-        <v>100.2</v>
+        <v>100.2695462</v>
       </c>
       <c r="I50" t="n">
-        <v>100.4</v>
+        <v>99.40231334000001</v>
       </c>
       <c r="J50" t="n">
-        <v>98.90000000000001</v>
+        <v>103.13372993</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.7</v>
+        <v>98.44051469</v>
       </c>
       <c r="C51" t="n">
-        <v>99.3</v>
+        <v>99.80399868000001</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>100.06659159</v>
       </c>
       <c r="E51" t="n">
-        <v>99.40000000000001</v>
+        <v>100.76342491</v>
       </c>
       <c r="F51" t="n">
-        <v>100</v>
+        <v>99.89844751</v>
       </c>
       <c r="G51" t="n">
-        <v>99.09999999999999</v>
+        <v>100.02262358</v>
       </c>
       <c r="H51" t="n">
-        <v>100</v>
+        <v>99.92607921</v>
       </c>
       <c r="I51" t="n">
-        <v>100.3</v>
+        <v>99.7674751</v>
       </c>
       <c r="J51" t="n">
-        <v>98.5</v>
+        <v>103.06198481</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>101</v>
+        <v>97.42422582</v>
       </c>
       <c r="C52" t="n">
-        <v>99.59999999999999</v>
+        <v>100.41654236</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>100.16152693</v>
       </c>
       <c r="E52" t="n">
-        <v>100.7</v>
+        <v>98.79790441999999</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>99.80326218</v>
       </c>
       <c r="G52" t="n">
-        <v>99.90000000000001</v>
+        <v>99.94111733</v>
       </c>
       <c r="H52" t="n">
-        <v>100.1</v>
+        <v>99.84786882</v>
       </c>
       <c r="I52" t="n">
-        <v>100</v>
+        <v>99.87074799</v>
       </c>
       <c r="J52" t="n">
-        <v>101.9</v>
+        <v>97.29992967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>101.53588276</v>
+        <v>98.86207722</v>
       </c>
       <c r="C53" t="n">
-        <v>101.78966219</v>
+        <v>99.82539223000001</v>
       </c>
       <c r="D53" t="n">
-        <v>100.54109069</v>
+        <v>100.12218085</v>
       </c>
       <c r="E53" t="n">
-        <v>101.41045282</v>
+        <v>99.19265154999999</v>
       </c>
       <c r="F53" t="n">
-        <v>99.94638833</v>
+        <v>99.86458795999999</v>
       </c>
       <c r="G53" t="n">
-        <v>101.74493121</v>
+        <v>99.77061277</v>
       </c>
       <c r="H53" t="n">
-        <v>100.2695462</v>
+        <v>99.91449708</v>
       </c>
       <c r="I53" t="n">
-        <v>99.40231334000001</v>
+        <v>99.97615743</v>
       </c>
       <c r="J53" t="n">
-        <v>103.13372993</v>
+        <v>98.04874173</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>98.44051469</v>
+        <v>99.84852194</v>
       </c>
       <c r="C54" t="n">
-        <v>99.80399868000001</v>
+        <v>100.5012853</v>
       </c>
       <c r="D54" t="n">
-        <v>100.06659159</v>
+        <v>99.93004937000001</v>
       </c>
       <c r="E54" t="n">
-        <v>100.76342491</v>
+        <v>99.25644081</v>
       </c>
       <c r="F54" t="n">
-        <v>99.89844751</v>
+        <v>99.84783618</v>
       </c>
       <c r="G54" t="n">
-        <v>100.02262358</v>
+        <v>100.01799753</v>
       </c>
       <c r="H54" t="n">
-        <v>99.92607921</v>
+        <v>100.02464066</v>
       </c>
       <c r="I54" t="n">
-        <v>99.7674751</v>
+        <v>100.14582077</v>
       </c>
       <c r="J54" t="n">
-        <v>103.06198481</v>
+        <v>97.73382357</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.42422582</v>
+        <v>99.7306202</v>
       </c>
       <c r="C55" t="n">
-        <v>100.41654236</v>
+        <v>100.38907437</v>
       </c>
       <c r="D55" t="n">
-        <v>100.16152693</v>
+        <v>100.00873381</v>
       </c>
       <c r="E55" t="n">
-        <v>98.79790441999999</v>
+        <v>99.89820122</v>
       </c>
       <c r="F55" t="n">
-        <v>99.80326218</v>
+        <v>99.81949132</v>
       </c>
       <c r="G55" t="n">
-        <v>99.94111733</v>
+        <v>99.6616808</v>
       </c>
       <c r="H55" t="n">
-        <v>99.84786882</v>
+        <v>99.86700092</v>
       </c>
       <c r="I55" t="n">
-        <v>99.87074799</v>
+        <v>99.71271652999999</v>
       </c>
       <c r="J55" t="n">
-        <v>97.29992967</v>
+        <v>100.07046174</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.86207722</v>
+        <v>100.32934283</v>
       </c>
       <c r="C56" t="n">
-        <v>99.82539223000001</v>
+        <v>100.95247882</v>
       </c>
       <c r="D56" t="n">
-        <v>100.12218085</v>
+        <v>100.05215378</v>
       </c>
       <c r="E56" t="n">
-        <v>99.19265154999999</v>
+        <v>100.55693588</v>
       </c>
       <c r="F56" t="n">
-        <v>99.86458795999999</v>
+        <v>99.95988948</v>
       </c>
       <c r="G56" t="n">
-        <v>99.77061277</v>
+        <v>99.69893127</v>
       </c>
       <c r="H56" t="n">
-        <v>99.91449708</v>
+        <v>100.04957869</v>
       </c>
       <c r="I56" t="n">
-        <v>99.97615743</v>
+        <v>99.48646229000001</v>
       </c>
       <c r="J56" t="n">
-        <v>98.04874173</v>
+        <v>101.80880989</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.84852194</v>
+        <v>100.290817</v>
       </c>
       <c r="C57" t="n">
-        <v>100.5012853</v>
+        <v>102.55999598</v>
       </c>
       <c r="D57" t="n">
-        <v>99.93004937000001</v>
+        <v>100.08593413</v>
       </c>
       <c r="E57" t="n">
-        <v>99.25644081</v>
+        <v>100.38605958</v>
       </c>
       <c r="F57" t="n">
-        <v>99.84783618</v>
+        <v>100.09145282</v>
       </c>
       <c r="G57" t="n">
-        <v>100.01799753</v>
+        <v>99.63061278000001</v>
       </c>
       <c r="H57" t="n">
-        <v>100.02464066</v>
+        <v>99.97839947999999</v>
       </c>
       <c r="I57" t="n">
-        <v>100.14582077</v>
+        <v>99.86880445</v>
       </c>
       <c r="J57" t="n">
-        <v>97.73382357</v>
+        <v>100.93885206</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.7306202</v>
+        <v>99.93181751</v>
       </c>
       <c r="C58" t="n">
-        <v>100.38907437</v>
+        <v>98.90519020000001</v>
       </c>
       <c r="D58" t="n">
-        <v>100.00873381</v>
+        <v>100.0135496</v>
       </c>
       <c r="E58" t="n">
-        <v>99.89820122</v>
+        <v>100.23192207</v>
       </c>
       <c r="F58" t="n">
-        <v>99.81949132</v>
+        <v>100.0122212</v>
       </c>
       <c r="G58" t="n">
-        <v>99.6616808</v>
+        <v>100.74109091</v>
       </c>
       <c r="H58" t="n">
-        <v>99.86700092</v>
+        <v>99.92678754000001</v>
       </c>
       <c r="I58" t="n">
-        <v>99.71271652999999</v>
+        <v>100.9433427</v>
       </c>
       <c r="J58" t="n">
-        <v>100.07046174</v>
+        <v>100.36909367</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.32934283</v>
+        <v>99.8</v>
       </c>
       <c r="C59" t="n">
-        <v>100.95247882</v>
+        <v>98.3</v>
       </c>
       <c r="D59" t="n">
-        <v>100.05215378</v>
+        <v>100.1</v>
       </c>
       <c r="E59" t="n">
-        <v>100.55693588</v>
+        <v>99.7</v>
       </c>
       <c r="F59" t="n">
-        <v>99.95988948</v>
+        <v>100.1</v>
       </c>
       <c r="G59" t="n">
-        <v>99.69893127</v>
+        <v>100.7</v>
       </c>
       <c r="H59" t="n">
-        <v>100.04957869</v>
+        <v>100.2</v>
       </c>
       <c r="I59" t="n">
-        <v>99.48646229000001</v>
+        <v>100.4</v>
       </c>
       <c r="J59" t="n">
-        <v>101.80880989</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.290817</v>
+        <v>99.7</v>
       </c>
       <c r="C60" t="n">
-        <v>102.55999598</v>
+        <v>99.3</v>
       </c>
       <c r="D60" t="n">
-        <v>100.08593413</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>100.38605958</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>100.09145282</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>99.63061278000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>99.97839947999999</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>99.86880445</v>
+        <v>100.3</v>
       </c>
       <c r="J60" t="n">
-        <v>100.93885206</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.93181751</v>
+        <v>101</v>
       </c>
       <c r="C61" t="n">
-        <v>98.90519020000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>100.0135496</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>100.23192207</v>
+        <v>100.7</v>
       </c>
       <c r="F61" t="n">
-        <v>100.0122212</v>
+        <v>100</v>
       </c>
       <c r="G61" t="n">
-        <v>100.74109091</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>99.92678754000001</v>
+        <v>100.1</v>
       </c>
       <c r="I61" t="n">
-        <v>100.9433427</v>
+        <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>100.36909367</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B62" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E62" t="n">
         <v>101</v>
       </c>
-      <c r="C62" t="n">
+      <c r="F62" t="n">
         <v>100.1</v>
       </c>
-      <c r="D62" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="E62" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="F62" t="n">
-        <v>100.3</v>
-      </c>
       <c r="G62" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="H62" t="n">
         <v>100.3</v>
       </c>
       <c r="I62" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>101.3</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.2</v>
+        <v>101.1</v>
       </c>
       <c r="C63" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D63" t="n">
         <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="G63" t="n">
-        <v>99.3</v>
+        <v>100.9</v>
       </c>
       <c r="H63" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="I63" t="n">
-        <v>100.3</v>
+        <v>99.5</v>
       </c>
       <c r="J63" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>98.7</v>
+        <v>101.4</v>
       </c>
       <c r="C64" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="D64" t="n">
         <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="F64" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="G64" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="H64" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="I64" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="J64" t="n">
-        <v>99.7</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.9</v>
+        <v>100.5</v>
       </c>
       <c r="C65" t="n">
         <v>100.5</v>
       </c>
       <c r="D65" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E65" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="F65" t="n">
         <v>100.1</v>
       </c>
       <c r="G65" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="H65" t="n">
         <v>100.3</v>
       </c>
       <c r="I65" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>102.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C66" t="n">
-        <v>99.59999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="D66" t="n">
         <v>100</v>
       </c>
       <c r="E66" t="n">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="G66" t="n">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="H66" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="J66" t="n">
-        <v>101.4</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>101.4</v>
+        <v>100.1</v>
       </c>
       <c r="C67" t="n">
-        <v>99.2</v>
+        <v>100.1</v>
       </c>
       <c r="D67" t="n">
         <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="G67" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="H67" t="n">
         <v>99.8</v>
       </c>
       <c r="I67" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="J67" t="n">
-        <v>97.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.5</v>
+        <v>101.6</v>
       </c>
       <c r="C68" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="D68" t="n">
         <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="F68" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="G68" t="n">
-        <v>100.8</v>
+        <v>101.2</v>
       </c>
       <c r="H68" t="n">
         <v>100.3</v>
       </c>
       <c r="I68" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>100.6</v>
+        <v>99</v>
       </c>
       <c r="D69" t="n">
         <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="F69" t="n">
         <v>100.1</v>
       </c>
       <c r="G69" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="H69" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I69" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I69" t="n">
-        <v>100.3</v>
-      </c>
       <c r="J69" t="n">
-        <v>99.09999999999999</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="C70" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D70" t="n">
         <v>100</v>
       </c>
       <c r="E70" t="n">
+        <v>100</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J70" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="F70" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="H70" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I70" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>98.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>101.6</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
         <v>100.1</v>
       </c>
       <c r="D71" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="E71" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="F71" t="n">
         <v>100.3</v>
       </c>
-      <c r="F71" t="n">
-        <v>100.2</v>
-      </c>
       <c r="G71" t="n">
-        <v>101.2</v>
+        <v>100.3</v>
       </c>
       <c r="H71" t="n">
         <v>100.3</v>
       </c>
       <c r="I71" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="J71" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="C72" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="D72" t="n">
         <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="F72" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="H72" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="J72" t="n">
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99.7</v>
+        <v>98.7</v>
       </c>
       <c r="C73" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="D73" t="n">
         <v>100</v>
       </c>
       <c r="E73" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G73" t="n">
         <v>100</v>
       </c>
-      <c r="F73" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G73" t="n">
-        <v>100.7</v>
-      </c>
       <c r="H73" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="I73" t="n">
-        <v>100.9</v>
+        <v>100.1</v>
       </c>
       <c r="J73" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/城市居民消费价格分类指数(上月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,2449 +483,3095 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.06547679</v>
+        <v>99.9189506</v>
       </c>
       <c r="C2" t="n">
-        <v>100.75968072</v>
+        <v>99.30905538</v>
       </c>
       <c r="D2" t="n">
-        <v>100.35269656</v>
+        <v>100.610130999999</v>
       </c>
       <c r="E2" t="n">
-        <v>100.5453474</v>
+        <v>99.87010875999989</v>
       </c>
       <c r="F2" t="n">
-        <v>100.08271599</v>
+        <v>100.112742999999</v>
       </c>
       <c r="G2" t="n">
-        <v>100.75347226</v>
+        <v>99.5869945</v>
       </c>
       <c r="H2" t="n">
-        <v>100.19388735</v>
+        <v>100.077269799999</v>
       </c>
       <c r="I2" t="n">
-        <v>99.57082235</v>
+        <v>100.5778315</v>
       </c>
       <c r="J2" t="n">
-        <v>101.38385177</v>
+        <v>99.4172175799999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.21356232</v>
+        <v>99.98693038</v>
       </c>
       <c r="C3" t="n">
-        <v>101.63496109</v>
+        <v>100.0030423</v>
       </c>
       <c r="D3" t="n">
-        <v>100.1303689</v>
+        <v>100.4220061</v>
       </c>
       <c r="E3" t="n">
-        <v>101.56601863</v>
+        <v>100.1398507</v>
       </c>
       <c r="F3" t="n">
-        <v>100.14632923</v>
+        <v>100.1800905</v>
       </c>
       <c r="G3" t="n">
-        <v>100.68637929</v>
+        <v>99.59010667</v>
       </c>
       <c r="H3" t="n">
-        <v>100.1754257</v>
+        <v>100.0123411</v>
       </c>
       <c r="I3" t="n">
-        <v>99.67908982</v>
+        <v>100.5689072</v>
       </c>
       <c r="J3" t="n">
-        <v>104.67060308</v>
+        <v>100.2388904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.28224117000001</v>
+        <v>100.5308132</v>
       </c>
       <c r="C4" t="n">
-        <v>100.33069864</v>
+        <v>99.60985474</v>
       </c>
       <c r="D4" t="n">
-        <v>100.30567166</v>
+        <v>100.6023605</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5747622</v>
+        <v>100.2144979</v>
       </c>
       <c r="F4" t="n">
-        <v>100.3926904</v>
+        <v>100.1415456</v>
       </c>
       <c r="G4" t="n">
-        <v>99.08475876999999</v>
+        <v>100.0761642</v>
       </c>
       <c r="H4" t="n">
-        <v>99.77556687000001</v>
+        <v>100.1727908</v>
       </c>
       <c r="I4" t="n">
-        <v>100.59149526</v>
+        <v>99.73053765</v>
       </c>
       <c r="J4" t="n">
-        <v>98.73842461</v>
+        <v>100.3076553</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.0608517</v>
+        <v>100.06547679</v>
       </c>
       <c r="C5" t="n">
-        <v>100.18492425</v>
+        <v>100.75968072</v>
       </c>
       <c r="D5" t="n">
-        <v>100.40490645</v>
+        <v>100.35269656</v>
       </c>
       <c r="E5" t="n">
-        <v>99.82007344</v>
+        <v>100.5453474</v>
       </c>
       <c r="F5" t="n">
-        <v>100.21703264</v>
+        <v>100.08271599</v>
       </c>
       <c r="G5" t="n">
-        <v>100.13936022</v>
+        <v>100.75347226</v>
       </c>
       <c r="H5" t="n">
-        <v>100.06860564</v>
+        <v>100.19388735</v>
       </c>
       <c r="I5" t="n">
-        <v>100.10663056</v>
+        <v>99.57082235</v>
       </c>
       <c r="J5" t="n">
-        <v>99.01520343999999</v>
+        <v>101.38385177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.32609198</v>
+        <v>100.21356232</v>
       </c>
       <c r="C6" t="n">
-        <v>100.3529835</v>
+        <v>101.63496109</v>
       </c>
       <c r="D6" t="n">
-        <v>100.2849639</v>
+        <v>100.1303689</v>
       </c>
       <c r="E6" t="n">
-        <v>99.53389859000001</v>
+        <v>101.56601863</v>
       </c>
       <c r="F6" t="n">
-        <v>100.0990674</v>
+        <v>100.14632923</v>
       </c>
       <c r="G6" t="n">
-        <v>99.87133848000001</v>
+        <v>100.68637929</v>
       </c>
       <c r="H6" t="n">
-        <v>100.01961226</v>
+        <v>100.1754257</v>
       </c>
       <c r="I6" t="n">
-        <v>100.08258205</v>
+        <v>99.67908982</v>
       </c>
       <c r="J6" t="n">
-        <v>98.16282923</v>
+        <v>104.67060308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.67166406</v>
+        <v>99.28224117000001</v>
       </c>
       <c r="C7" t="n">
-        <v>100.13077052</v>
+        <v>100.33069864</v>
       </c>
       <c r="D7" t="n">
-        <v>100.53434983</v>
+        <v>100.30567166</v>
       </c>
       <c r="E7" t="n">
-        <v>99.87192542</v>
+        <v>99.5747622</v>
       </c>
       <c r="F7" t="n">
-        <v>100.12759654</v>
+        <v>100.3926904</v>
       </c>
       <c r="G7" t="n">
-        <v>100.40795656</v>
+        <v>99.08475876999999</v>
       </c>
       <c r="H7" t="n">
-        <v>99.99798048</v>
+        <v>99.77556687000001</v>
       </c>
       <c r="I7" t="n">
-        <v>99.62139139999999</v>
+        <v>100.59149526</v>
       </c>
       <c r="J7" t="n">
-        <v>99.00188439999999</v>
+        <v>98.73842461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.15217011</v>
+        <v>100.0608517</v>
       </c>
       <c r="C8" t="n">
-        <v>101.43971731</v>
+        <v>100.18492425</v>
       </c>
       <c r="D8" t="n">
-        <v>100.92680024</v>
+        <v>100.40490645</v>
       </c>
       <c r="E8" t="n">
-        <v>100.27217669</v>
+        <v>99.82007344</v>
       </c>
       <c r="F8" t="n">
-        <v>100.18196627</v>
+        <v>100.21703264</v>
       </c>
       <c r="G8" t="n">
-        <v>101.2130701</v>
+        <v>100.13936022</v>
       </c>
       <c r="H8" t="n">
-        <v>100.03274246</v>
+        <v>100.06860564</v>
       </c>
       <c r="I8" t="n">
-        <v>99.57250888999999</v>
+        <v>100.10663056</v>
       </c>
       <c r="J8" t="n">
-        <v>99.97309396</v>
+        <v>99.01520343999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.34105047</v>
+        <v>100.32609198</v>
       </c>
       <c r="C9" t="n">
-        <v>100.11504097</v>
+        <v>100.3529835</v>
       </c>
       <c r="D9" t="n">
-        <v>100.33576952</v>
+        <v>100.2849639</v>
       </c>
       <c r="E9" t="n">
-        <v>100.05790943</v>
+        <v>99.53389859000001</v>
       </c>
       <c r="F9" t="n">
-        <v>100.22166218</v>
+        <v>100.0990674</v>
       </c>
       <c r="G9" t="n">
-        <v>99.81529981</v>
+        <v>99.87133848000001</v>
       </c>
       <c r="H9" t="n">
-        <v>99.96915094000001</v>
+        <v>100.01961226</v>
       </c>
       <c r="I9" t="n">
-        <v>100.0212571</v>
+        <v>100.08258205</v>
       </c>
       <c r="J9" t="n">
-        <v>100.28185087</v>
+        <v>98.16282923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.338346099999</v>
+        <v>100.67166406</v>
       </c>
       <c r="C10" t="n">
-        <v>100.2022477</v>
+        <v>100.13077052</v>
       </c>
       <c r="D10" t="n">
-        <v>100.2371478</v>
+        <v>100.53434983</v>
       </c>
       <c r="E10" t="n">
-        <v>100.6700177</v>
+        <v>99.87192542</v>
       </c>
       <c r="F10" t="n">
-        <v>100.2470395</v>
+        <v>100.12759654</v>
       </c>
       <c r="G10" t="n">
-        <v>101.091696099999</v>
+        <v>100.40795656</v>
       </c>
       <c r="H10" t="n">
-        <v>99.9477131299999</v>
+        <v>99.99798048</v>
       </c>
       <c r="I10" t="n">
-        <v>100.939638299999</v>
+        <v>99.62139139999999</v>
       </c>
       <c r="J10" t="n">
-        <v>101.1895834</v>
+        <v>99.00188439999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.9189506</v>
+        <v>100.15217011</v>
       </c>
       <c r="C11" t="n">
-        <v>99.30905538</v>
+        <v>101.43971731</v>
       </c>
       <c r="D11" t="n">
-        <v>100.610130999999</v>
+        <v>100.92680024</v>
       </c>
       <c r="E11" t="n">
-        <v>99.87010875999989</v>
+        <v>100.27217669</v>
       </c>
       <c r="F11" t="n">
-        <v>100.112742999999</v>
+        <v>100.18196627</v>
       </c>
       <c r="G11" t="n">
-        <v>99.5869945</v>
+        <v>101.2130701</v>
       </c>
       <c r="H11" t="n">
-        <v>100.077269799999</v>
+        <v>100.03274246</v>
       </c>
       <c r="I11" t="n">
-        <v>100.5778315</v>
+        <v>99.57250888999999</v>
       </c>
       <c r="J11" t="n">
-        <v>99.4172175799999</v>
+        <v>99.97309396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.98693038</v>
+        <v>99.34105047</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0030423</v>
+        <v>100.11504097</v>
       </c>
       <c r="D12" t="n">
-        <v>100.4220061</v>
+        <v>100.33576952</v>
       </c>
       <c r="E12" t="n">
-        <v>100.1398507</v>
+        <v>100.05790943</v>
       </c>
       <c r="F12" t="n">
-        <v>100.1800905</v>
+        <v>100.22166218</v>
       </c>
       <c r="G12" t="n">
-        <v>99.59010667</v>
+        <v>99.81529981</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0123411</v>
+        <v>99.96915094000001</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5689072</v>
+        <v>100.0212571</v>
       </c>
       <c r="J12" t="n">
-        <v>100.2388904</v>
+        <v>100.28185087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.5308132</v>
+        <v>100.338346099999</v>
       </c>
       <c r="C13" t="n">
-        <v>99.60985474</v>
+        <v>100.2022477</v>
       </c>
       <c r="D13" t="n">
-        <v>100.6023605</v>
+        <v>100.2371478</v>
       </c>
       <c r="E13" t="n">
-        <v>100.2144979</v>
+        <v>100.6700177</v>
       </c>
       <c r="F13" t="n">
-        <v>100.1415456</v>
+        <v>100.2470395</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0761642</v>
+        <v>101.091696099999</v>
       </c>
       <c r="H13" t="n">
-        <v>100.1727908</v>
+        <v>99.9477131299999</v>
       </c>
       <c r="I13" t="n">
-        <v>99.73053765</v>
+        <v>100.939638299999</v>
       </c>
       <c r="J13" t="n">
-        <v>100.3076553</v>
+        <v>101.1895834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.4655763</v>
+        <v>100.1979794</v>
       </c>
       <c r="C14" t="n">
-        <v>101.4919992</v>
+        <v>99.7152349</v>
       </c>
       <c r="D14" t="n">
-        <v>100.8029859</v>
+        <v>100.1956979</v>
       </c>
       <c r="E14" t="n">
-        <v>101.046179</v>
+        <v>100.0848683</v>
       </c>
       <c r="F14" t="n">
-        <v>100.2347478</v>
+        <v>100.1861085</v>
       </c>
       <c r="G14" t="n">
-        <v>102.0273078</v>
+        <v>99.54463641</v>
       </c>
       <c r="H14" t="n">
-        <v>100.3804813</v>
+        <v>100.1757801</v>
       </c>
       <c r="I14" t="n">
-        <v>99.49799487</v>
+        <v>100.4784603</v>
       </c>
       <c r="J14" t="n">
-        <v>101.6788666</v>
+        <v>100.0616086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.4727085</v>
+        <v>100.5266671</v>
       </c>
       <c r="C15" t="n">
-        <v>100.05783441</v>
+        <v>99.91748437</v>
       </c>
       <c r="D15" t="n">
-        <v>100.2677934</v>
+        <v>100.1888223</v>
       </c>
       <c r="E15" t="n">
-        <v>99.81218545999999</v>
+        <v>100.0058176</v>
       </c>
       <c r="F15" t="n">
-        <v>100.45845953</v>
+        <v>100.1661035</v>
       </c>
       <c r="G15" t="n">
-        <v>98.76272317</v>
+        <v>99.3226185</v>
       </c>
       <c r="H15" t="n">
-        <v>99.97293612999999</v>
+        <v>100.0906377</v>
       </c>
       <c r="I15" t="n">
-        <v>99.87884560000001</v>
+        <v>100.5020914</v>
       </c>
       <c r="J15" t="n">
-        <v>99.700577</v>
+        <v>99.74754846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.67515224</v>
+        <v>100.4006438</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0059453</v>
+        <v>99.86275472</v>
       </c>
       <c r="D16" t="n">
-        <v>100.4704315</v>
+        <v>100.1394093</v>
       </c>
       <c r="E16" t="n">
-        <v>99.70476527</v>
+        <v>100.3165508</v>
       </c>
       <c r="F16" t="n">
-        <v>100.2580994</v>
+        <v>100.1005006</v>
       </c>
       <c r="G16" t="n">
-        <v>99.77188271999999</v>
+        <v>100.0987982</v>
       </c>
       <c r="H16" t="n">
-        <v>99.98851596</v>
+        <v>100.2118539</v>
       </c>
       <c r="I16" t="n">
-        <v>100.6625836</v>
+        <v>99.87969577</v>
       </c>
       <c r="J16" t="n">
-        <v>98.73050840000001</v>
+        <v>100.7812696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.8596369</v>
+        <v>101.4655763</v>
       </c>
       <c r="C17" t="n">
-        <v>100.7967919</v>
+        <v>101.4919992</v>
       </c>
       <c r="D17" t="n">
-        <v>100.7759551</v>
+        <v>100.8029859</v>
       </c>
       <c r="E17" t="n">
-        <v>100.1007811</v>
+        <v>101.046179</v>
       </c>
       <c r="F17" t="n">
-        <v>100.1566781</v>
+        <v>100.2347478</v>
       </c>
       <c r="G17" t="n">
-        <v>100.4357738</v>
+        <v>102.0273078</v>
       </c>
       <c r="H17" t="n">
-        <v>100.2367191</v>
+        <v>100.3804813</v>
       </c>
       <c r="I17" t="n">
-        <v>100.1693263</v>
+        <v>99.49799487</v>
       </c>
       <c r="J17" t="n">
-        <v>99.72565365</v>
+        <v>101.6788666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.66331674</v>
+        <v>99.4727085</v>
       </c>
       <c r="C18" t="n">
-        <v>99.69527282999999</v>
+        <v>100.05783441</v>
       </c>
       <c r="D18" t="n">
-        <v>100.3783951</v>
+        <v>100.2677934</v>
       </c>
       <c r="E18" t="n">
-        <v>99.89704894</v>
+        <v>99.81218545999999</v>
       </c>
       <c r="F18" t="n">
-        <v>100.1035109</v>
+        <v>100.45845953</v>
       </c>
       <c r="G18" t="n">
-        <v>99.83490569999999</v>
+        <v>98.76272317</v>
       </c>
       <c r="H18" t="n">
-        <v>100.1879022</v>
+        <v>99.97293612999999</v>
       </c>
       <c r="I18" t="n">
-        <v>100.1008005</v>
+        <v>99.87884560000001</v>
       </c>
       <c r="J18" t="n">
-        <v>99.64057325</v>
+        <v>99.700577</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.70792659999999</v>
+        <v>99.67515224</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0547539</v>
+        <v>100.0059453</v>
       </c>
       <c r="D19" t="n">
-        <v>100.3411291</v>
+        <v>100.4704315</v>
       </c>
       <c r="E19" t="n">
-        <v>99.87562140999999</v>
+        <v>99.70476527</v>
       </c>
       <c r="F19" t="n">
-        <v>100.1685929</v>
+        <v>100.2580994</v>
       </c>
       <c r="G19" t="n">
-        <v>100.3340526</v>
+        <v>99.77188271999999</v>
       </c>
       <c r="H19" t="n">
-        <v>100.0550353</v>
+        <v>99.98851596</v>
       </c>
       <c r="I19" t="n">
-        <v>99.73840056</v>
+        <v>100.6625836</v>
       </c>
       <c r="J19" t="n">
-        <v>99.39871271</v>
+        <v>98.73050840000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.75315045000001</v>
+        <v>99.8596369</v>
       </c>
       <c r="C20" t="n">
-        <v>99.89936564</v>
+        <v>100.7967919</v>
       </c>
       <c r="D20" t="n">
-        <v>100.5260668</v>
+        <v>100.7759551</v>
       </c>
       <c r="E20" t="n">
-        <v>100.1318706</v>
+        <v>100.1007811</v>
       </c>
       <c r="F20" t="n">
-        <v>100.1165893</v>
+        <v>100.1566781</v>
       </c>
       <c r="G20" t="n">
-        <v>101.1783514</v>
+        <v>100.4357738</v>
       </c>
       <c r="H20" t="n">
-        <v>100.0736897</v>
+        <v>100.2367191</v>
       </c>
       <c r="I20" t="n">
-        <v>99.56169663999999</v>
+        <v>100.1693263</v>
       </c>
       <c r="J20" t="n">
-        <v>99.97360068</v>
+        <v>99.72565365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.2804824</v>
+        <v>99.66331674</v>
       </c>
       <c r="C21" t="n">
-        <v>100.2291421</v>
+        <v>99.69527282999999</v>
       </c>
       <c r="D21" t="n">
-        <v>100.8917117</v>
+        <v>100.3783951</v>
       </c>
       <c r="E21" t="n">
-        <v>100.3873892</v>
+        <v>99.89704894</v>
       </c>
       <c r="F21" t="n">
-        <v>100.3519947</v>
+        <v>100.1035109</v>
       </c>
       <c r="G21" t="n">
-        <v>99.87028185</v>
+        <v>99.83490569999999</v>
       </c>
       <c r="H21" t="n">
-        <v>100.0657007</v>
+        <v>100.1879022</v>
       </c>
       <c r="I21" t="n">
-        <v>99.81887652</v>
+        <v>100.1008005</v>
       </c>
       <c r="J21" t="n">
-        <v>100.781958</v>
+        <v>99.64057325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.1094761</v>
+        <v>99.70792659999999</v>
       </c>
       <c r="C22" t="n">
-        <v>100.2148228</v>
+        <v>100.0547539</v>
       </c>
       <c r="D22" t="n">
-        <v>102.1567242</v>
+        <v>100.3411291</v>
       </c>
       <c r="E22" t="n">
-        <v>100.5315787</v>
+        <v>99.87562140999999</v>
       </c>
       <c r="F22" t="n">
-        <v>100.2949267</v>
+        <v>100.1685929</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8826966</v>
+        <v>100.3340526</v>
       </c>
       <c r="H22" t="n">
-        <v>100.0673363</v>
+        <v>100.0550353</v>
       </c>
       <c r="I22" t="n">
-        <v>100.9456741</v>
+        <v>99.73840056</v>
       </c>
       <c r="J22" t="n">
-        <v>100.3195141</v>
+        <v>99.39871271</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.1979794</v>
+        <v>99.75315045000001</v>
       </c>
       <c r="C23" t="n">
-        <v>99.7152349</v>
+        <v>99.89936564</v>
       </c>
       <c r="D23" t="n">
-        <v>100.1956979</v>
+        <v>100.5260668</v>
       </c>
       <c r="E23" t="n">
-        <v>100.0848683</v>
+        <v>100.1318706</v>
       </c>
       <c r="F23" t="n">
-        <v>100.1861085</v>
+        <v>100.1165893</v>
       </c>
       <c r="G23" t="n">
-        <v>99.54463641</v>
+        <v>101.1783514</v>
       </c>
       <c r="H23" t="n">
-        <v>100.1757801</v>
+        <v>100.0736897</v>
       </c>
       <c r="I23" t="n">
-        <v>100.4784603</v>
+        <v>99.56169663999999</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0616086</v>
+        <v>99.97360068</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.5266671</v>
+        <v>100.2804824</v>
       </c>
       <c r="C24" t="n">
-        <v>99.91748437</v>
+        <v>100.2291421</v>
       </c>
       <c r="D24" t="n">
-        <v>100.1888223</v>
+        <v>100.8917117</v>
       </c>
       <c r="E24" t="n">
-        <v>100.0058176</v>
+        <v>100.3873892</v>
       </c>
       <c r="F24" t="n">
-        <v>100.1661035</v>
+        <v>100.3519947</v>
       </c>
       <c r="G24" t="n">
-        <v>99.3226185</v>
+        <v>99.87028185</v>
       </c>
       <c r="H24" t="n">
-        <v>100.0906377</v>
+        <v>100.0657007</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5020914</v>
+        <v>99.81887652</v>
       </c>
       <c r="J24" t="n">
-        <v>99.74754846</v>
+        <v>100.781958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.4006438</v>
+        <v>100.1094761</v>
       </c>
       <c r="C25" t="n">
-        <v>99.86275472</v>
+        <v>100.2148228</v>
       </c>
       <c r="D25" t="n">
-        <v>100.1394093</v>
+        <v>102.1567242</v>
       </c>
       <c r="E25" t="n">
-        <v>100.3165508</v>
+        <v>100.5315787</v>
       </c>
       <c r="F25" t="n">
-        <v>100.1005006</v>
+        <v>100.2949267</v>
       </c>
       <c r="G25" t="n">
-        <v>100.0987982</v>
+        <v>100.8826966</v>
       </c>
       <c r="H25" t="n">
-        <v>100.2118539</v>
+        <v>100.0673363</v>
       </c>
       <c r="I25" t="n">
-        <v>99.87969577</v>
+        <v>100.9456741</v>
       </c>
       <c r="J25" t="n">
-        <v>100.7812696</v>
+        <v>100.3195141</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.4450591</v>
+        <v>100.62884999</v>
       </c>
       <c r="C26" t="n">
-        <v>100.7928007</v>
+        <v>100.31116197</v>
       </c>
       <c r="D26" t="n">
-        <v>100.1884061</v>
+        <v>100.16121393</v>
       </c>
       <c r="E26" t="n">
-        <v>100.6186622</v>
+        <v>100.17241928</v>
       </c>
       <c r="F26" t="n">
-        <v>100.101488</v>
+        <v>100.13571234</v>
       </c>
       <c r="G26" t="n">
-        <v>100.5870039</v>
+        <v>99.93512481</v>
       </c>
       <c r="H26" t="n">
-        <v>100.2864496</v>
+        <v>100.08287699</v>
       </c>
       <c r="I26" t="n">
-        <v>99.56710438</v>
+        <v>100.74606179</v>
       </c>
       <c r="J26" t="n">
-        <v>101.5623789</v>
+        <v>99.95617086</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.9364252</v>
+        <v>98.95181291999999</v>
       </c>
       <c r="C27" t="n">
-        <v>100.3215856</v>
+        <v>100.15650517</v>
       </c>
       <c r="D27" t="n">
-        <v>100.1275895</v>
+        <v>100.20035798</v>
       </c>
       <c r="E27" t="n">
-        <v>101.2792664</v>
+        <v>99.63650997000001</v>
       </c>
       <c r="F27" t="n">
-        <v>99.9539206</v>
+        <v>100.03048894</v>
       </c>
       <c r="G27" t="n">
-        <v>102.1757425</v>
+        <v>99.31827397000001</v>
       </c>
       <c r="H27" t="n">
-        <v>100.3657541</v>
+        <v>100.06300375</v>
       </c>
       <c r="I27" t="n">
-        <v>99.46600174</v>
+        <v>100.38719352</v>
       </c>
       <c r="J27" t="n">
-        <v>103.1626249</v>
+        <v>99.24022576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.42207476</v>
+        <v>98.07826305</v>
       </c>
       <c r="C28" t="n">
-        <v>99.62661743</v>
+        <v>99.97513472999999</v>
       </c>
       <c r="D28" t="n">
-        <v>100.2111916</v>
+        <v>100.11537539</v>
       </c>
       <c r="E28" t="n">
-        <v>98.86886543999999</v>
+        <v>100.02313431</v>
       </c>
       <c r="F28" t="n">
-        <v>100.3119869</v>
+        <v>99.96716536</v>
       </c>
       <c r="G28" t="n">
-        <v>97.93070256</v>
+        <v>99.97571464000001</v>
       </c>
       <c r="H28" t="n">
-        <v>99.69390663</v>
+        <v>100.1937007</v>
       </c>
       <c r="I28" t="n">
-        <v>100.7088208</v>
+        <v>100.07161379</v>
       </c>
       <c r="J28" t="n">
-        <v>97.2785401</v>
+        <v>100.8106413</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.6664276</v>
+        <v>100.4450591</v>
       </c>
       <c r="C29" t="n">
-        <v>100.4872472</v>
+        <v>100.7928007</v>
       </c>
       <c r="D29" t="n">
-        <v>100.1923177</v>
+        <v>100.1884061</v>
       </c>
       <c r="E29" t="n">
-        <v>99.8</v>
+        <v>100.6186622</v>
       </c>
       <c r="F29" t="n">
-        <v>100.0903125</v>
+        <v>100.101488</v>
       </c>
       <c r="G29" t="n">
-        <v>100.2852608</v>
+        <v>100.5870039</v>
       </c>
       <c r="H29" t="n">
-        <v>100.1724532</v>
+        <v>100.2864496</v>
       </c>
       <c r="I29" t="n">
-        <v>100.1870313</v>
+        <v>99.56710438</v>
       </c>
       <c r="J29" t="n">
-        <v>98.83111375</v>
+        <v>101.5623789</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.3224812</v>
+        <v>100.9364252</v>
       </c>
       <c r="C30" t="n">
-        <v>99.80788843000001</v>
+        <v>100.3215856</v>
       </c>
       <c r="D30" t="n">
-        <v>100.2194686</v>
+        <v>100.1275895</v>
       </c>
       <c r="E30" t="n">
-        <v>99.8</v>
+        <v>101.2792664</v>
       </c>
       <c r="F30" t="n">
-        <v>100.0841095</v>
+        <v>99.9539206</v>
       </c>
       <c r="G30" t="n">
-        <v>99.69627172</v>
+        <v>102.1757425</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1599828</v>
+        <v>100.3657541</v>
       </c>
       <c r="I30" t="n">
-        <v>100.1747454</v>
+        <v>99.46600174</v>
       </c>
       <c r="J30" t="n">
-        <v>99.21081174</v>
+        <v>103.1626249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.29478463</v>
+        <v>98.42207476</v>
       </c>
       <c r="C31" t="n">
-        <v>99.96923017</v>
+        <v>99.62661743</v>
       </c>
       <c r="D31" t="n">
-        <v>100.20938049</v>
+        <v>100.2111916</v>
       </c>
       <c r="E31" t="n">
-        <v>99.95038137</v>
+        <v>98.86886543999999</v>
       </c>
       <c r="F31" t="n">
-        <v>100.19239934</v>
+        <v>100.3119869</v>
       </c>
       <c r="G31" t="n">
-        <v>100.24684182</v>
+        <v>97.93070256</v>
       </c>
       <c r="H31" t="n">
-        <v>100.11021102</v>
+        <v>99.69390663</v>
       </c>
       <c r="I31" t="n">
-        <v>99.72793359000001</v>
+        <v>100.7088208</v>
       </c>
       <c r="J31" t="n">
-        <v>99.45980314000001</v>
+        <v>97.2785401</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.36244234</v>
+        <v>100.6664276</v>
       </c>
       <c r="C32" t="n">
-        <v>100.31003354</v>
+        <v>100.4872472</v>
       </c>
       <c r="D32" t="n">
-        <v>100.21692683</v>
+        <v>100.1923177</v>
       </c>
       <c r="E32" t="n">
-        <v>100.36069065</v>
+        <v>99.8</v>
       </c>
       <c r="F32" t="n">
-        <v>100.24760129</v>
+        <v>100.0903125</v>
       </c>
       <c r="G32" t="n">
-        <v>101.78210197</v>
+        <v>100.2852608</v>
       </c>
       <c r="H32" t="n">
-        <v>100.14856364</v>
+        <v>100.1724532</v>
       </c>
       <c r="I32" t="n">
-        <v>99.65716591</v>
+        <v>100.1870313</v>
       </c>
       <c r="J32" t="n">
-        <v>100.16062351</v>
+        <v>98.83111375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.94823941</v>
+        <v>100.3224812</v>
       </c>
       <c r="C33" t="n">
-        <v>100.14814527</v>
+        <v>99.80788843000001</v>
       </c>
       <c r="D33" t="n">
-        <v>100.43784874</v>
+        <v>100.2194686</v>
       </c>
       <c r="E33" t="n">
-        <v>100.62015665</v>
+        <v>99.8</v>
       </c>
       <c r="F33" t="n">
-        <v>100.48478586</v>
+        <v>100.0841095</v>
       </c>
       <c r="G33" t="n">
-        <v>100.18064262</v>
+        <v>99.69627172</v>
       </c>
       <c r="H33" t="n">
-        <v>100.11507638</v>
+        <v>100.1599828</v>
       </c>
       <c r="I33" t="n">
-        <v>99.97396704000001</v>
+        <v>100.1747454</v>
       </c>
       <c r="J33" t="n">
-        <v>101.58201217</v>
+        <v>99.21081174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.2084185</v>
+        <v>100.29478463</v>
       </c>
       <c r="C34" t="n">
-        <v>99.74673937999999</v>
+        <v>99.96923017</v>
       </c>
       <c r="D34" t="n">
-        <v>100.22090001</v>
+        <v>100.20938049</v>
       </c>
       <c r="E34" t="n">
-        <v>100.66415225</v>
+        <v>99.95038137</v>
       </c>
       <c r="F34" t="n">
-        <v>100.3553928</v>
+        <v>100.19239934</v>
       </c>
       <c r="G34" t="n">
-        <v>100.34555699</v>
+        <v>100.24684182</v>
       </c>
       <c r="H34" t="n">
-        <v>100.1313667</v>
+        <v>100.11021102</v>
       </c>
       <c r="I34" t="n">
-        <v>100.80751823</v>
+        <v>99.72793359000001</v>
       </c>
       <c r="J34" t="n">
-        <v>101.51046074</v>
+        <v>99.45980314000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.62884999</v>
+        <v>100.36244234</v>
       </c>
       <c r="C35" t="n">
-        <v>100.31116197</v>
+        <v>100.31003354</v>
       </c>
       <c r="D35" t="n">
-        <v>100.16121393</v>
+        <v>100.21692683</v>
       </c>
       <c r="E35" t="n">
-        <v>100.17241928</v>
+        <v>100.36069065</v>
       </c>
       <c r="F35" t="n">
-        <v>100.13571234</v>
+        <v>100.24760129</v>
       </c>
       <c r="G35" t="n">
-        <v>99.93512481</v>
+        <v>101.78210197</v>
       </c>
       <c r="H35" t="n">
-        <v>100.08287699</v>
+        <v>100.14856364</v>
       </c>
       <c r="I35" t="n">
-        <v>100.74606179</v>
+        <v>99.65716591</v>
       </c>
       <c r="J35" t="n">
-        <v>99.95617086</v>
+        <v>100.16062351</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.95181291999999</v>
+        <v>99.94823941</v>
       </c>
       <c r="C36" t="n">
-        <v>100.15650517</v>
+        <v>100.14814527</v>
       </c>
       <c r="D36" t="n">
-        <v>100.20035798</v>
+        <v>100.43784874</v>
       </c>
       <c r="E36" t="n">
-        <v>99.63650997000001</v>
+        <v>100.62015665</v>
       </c>
       <c r="F36" t="n">
-        <v>100.03048894</v>
+        <v>100.48478586</v>
       </c>
       <c r="G36" t="n">
-        <v>99.31827397000001</v>
+        <v>100.18064262</v>
       </c>
       <c r="H36" t="n">
-        <v>100.06300375</v>
+        <v>100.11507638</v>
       </c>
       <c r="I36" t="n">
-        <v>100.38719352</v>
+        <v>99.97396704000001</v>
       </c>
       <c r="J36" t="n">
-        <v>99.24022576</v>
+        <v>101.58201217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.07826305</v>
+        <v>100.2084185</v>
       </c>
       <c r="C37" t="n">
-        <v>99.97513472999999</v>
+        <v>99.74673937999999</v>
       </c>
       <c r="D37" t="n">
-        <v>100.11537539</v>
+        <v>100.22090001</v>
       </c>
       <c r="E37" t="n">
-        <v>100.02313431</v>
+        <v>100.66415225</v>
       </c>
       <c r="F37" t="n">
-        <v>99.96716536</v>
+        <v>100.3553928</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97571464000001</v>
+        <v>100.34555699</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1937007</v>
+        <v>100.1313667</v>
       </c>
       <c r="I37" t="n">
-        <v>100.07161379</v>
+        <v>100.80751823</v>
       </c>
       <c r="J37" t="n">
-        <v>100.8106413</v>
+        <v>101.51046074</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.89328442</v>
+        <v>100.07965066</v>
       </c>
       <c r="C38" t="n">
-        <v>101.35583128</v>
+        <v>100.04816471</v>
       </c>
       <c r="D38" t="n">
-        <v>100.32207103</v>
+        <v>100.05881106</v>
       </c>
       <c r="E38" t="n">
-        <v>100.52197228</v>
+        <v>100.79783522</v>
       </c>
       <c r="F38" t="n">
-        <v>99.96859904</v>
+        <v>99.97503167000001</v>
       </c>
       <c r="G38" t="n">
-        <v>101.20018234</v>
+        <v>100.14378668</v>
       </c>
       <c r="H38" t="n">
-        <v>100.3929154</v>
+        <v>100.0998976</v>
       </c>
       <c r="I38" t="n">
-        <v>99.69223159000001</v>
+        <v>100.28003387</v>
       </c>
       <c r="J38" t="n">
-        <v>101.14164558</v>
+        <v>102.42957732</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.95033009</v>
+        <v>99.65449303</v>
       </c>
       <c r="C39" t="n">
-        <v>100.15347435</v>
+        <v>99.09760831</v>
       </c>
       <c r="D39" t="n">
-        <v>100.22489948</v>
+        <v>100.08220425</v>
       </c>
       <c r="E39" t="n">
-        <v>101.03566505</v>
+        <v>100.30708759</v>
       </c>
       <c r="F39" t="n">
-        <v>100.14625073</v>
+        <v>99.92921509999999</v>
       </c>
       <c r="G39" t="n">
-        <v>101.51902022</v>
+        <v>99.1316417</v>
       </c>
       <c r="H39" t="n">
-        <v>100.08100767</v>
+        <v>99.88643605</v>
       </c>
       <c r="I39" t="n">
-        <v>99.8654837</v>
+        <v>100.34743193</v>
       </c>
       <c r="J39" t="n">
-        <v>102.37344389</v>
+        <v>101.48884506</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.70565956</v>
+        <v>100.14736838</v>
       </c>
       <c r="C40" t="n">
-        <v>99.55788538</v>
+        <v>99.89108679</v>
       </c>
       <c r="D40" t="n">
-        <v>100.14702398</v>
+        <v>100.14678146</v>
       </c>
       <c r="E40" t="n">
-        <v>99.61426899999999</v>
+        <v>100.02574328</v>
       </c>
       <c r="F40" t="n">
-        <v>100.16818705</v>
+        <v>100.05129886</v>
       </c>
       <c r="G40" t="n">
-        <v>98.05288727</v>
+        <v>100.05474367</v>
       </c>
       <c r="H40" t="n">
-        <v>99.58451071</v>
+        <v>100.13715552</v>
       </c>
       <c r="I40" t="n">
-        <v>100.7367413</v>
+        <v>99.77997209999999</v>
       </c>
       <c r="J40" t="n">
-        <v>99.36151726</v>
+        <v>99.98083195</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.06995417</v>
+        <v>99.89328442</v>
       </c>
       <c r="C41" t="n">
-        <v>100.44419451</v>
+        <v>101.35583128</v>
       </c>
       <c r="D41" t="n">
-        <v>100.1016798</v>
+        <v>100.32207103</v>
       </c>
       <c r="E41" t="n">
-        <v>100.06142415</v>
+        <v>100.52197228</v>
       </c>
       <c r="F41" t="n">
-        <v>100.06082514</v>
+        <v>99.96859904</v>
       </c>
       <c r="G41" t="n">
-        <v>100.41166509</v>
+        <v>101.20018234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.08523257</v>
+        <v>100.3929154</v>
       </c>
       <c r="I41" t="n">
-        <v>100.03728396</v>
+        <v>99.69223159000001</v>
       </c>
       <c r="J41" t="n">
-        <v>99.8715911</v>
+        <v>101.14164558</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.94449288</v>
+        <v>100.95033009</v>
       </c>
       <c r="C42" t="n">
-        <v>100.02919339</v>
+        <v>100.15347435</v>
       </c>
       <c r="D42" t="n">
-        <v>100.16291069</v>
+        <v>100.22489948</v>
       </c>
       <c r="E42" t="n">
-        <v>100.02930331</v>
+        <v>101.03566505</v>
       </c>
       <c r="F42" t="n">
-        <v>99.95665036</v>
+        <v>100.14625073</v>
       </c>
       <c r="G42" t="n">
-        <v>99.78510199999999</v>
+        <v>101.51902022</v>
       </c>
       <c r="H42" t="n">
-        <v>100.02521881</v>
+        <v>100.08100767</v>
       </c>
       <c r="I42" t="n">
-        <v>100.09835765</v>
+        <v>99.8654837</v>
       </c>
       <c r="J42" t="n">
-        <v>100.15779934</v>
+        <v>102.37344389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.28882451</v>
+        <v>99.70565956</v>
       </c>
       <c r="C43" t="n">
-        <v>100.59815764</v>
+        <v>99.55788538</v>
       </c>
       <c r="D43" t="n">
-        <v>100.34675184</v>
+        <v>100.14702398</v>
       </c>
       <c r="E43" t="n">
-        <v>99.90496865</v>
+        <v>99.61426899999999</v>
       </c>
       <c r="F43" t="n">
-        <v>100.03291557</v>
+        <v>100.16818705</v>
       </c>
       <c r="G43" t="n">
-        <v>100.04130408</v>
+        <v>98.05288727</v>
       </c>
       <c r="H43" t="n">
-        <v>99.92908654</v>
+        <v>99.58451071</v>
       </c>
       <c r="I43" t="n">
-        <v>99.81678205999999</v>
+        <v>100.7367413</v>
       </c>
       <c r="J43" t="n">
-        <v>99.82366924999999</v>
+        <v>99.36151726</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.11896619</v>
+        <v>100.06995417</v>
       </c>
       <c r="C44" t="n">
-        <v>100.94172019</v>
+        <v>100.44419451</v>
       </c>
       <c r="D44" t="n">
-        <v>100.33292797</v>
+        <v>100.1016798</v>
       </c>
       <c r="E44" t="n">
-        <v>100.43205183</v>
+        <v>100.06142415</v>
       </c>
       <c r="F44" t="n">
-        <v>100.12048855</v>
+        <v>100.06082514</v>
       </c>
       <c r="G44" t="n">
-        <v>101.59929186</v>
+        <v>100.41166509</v>
       </c>
       <c r="H44" t="n">
-        <v>100.14911319</v>
+        <v>100.08523257</v>
       </c>
       <c r="I44" t="n">
-        <v>99.61690563000001</v>
+        <v>100.03728396</v>
       </c>
       <c r="J44" t="n">
-        <v>100.57585865</v>
+        <v>99.8715911</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.76585082</v>
+        <v>99.94449288</v>
       </c>
       <c r="C45" t="n">
-        <v>101.46250696</v>
+        <v>100.02919339</v>
       </c>
       <c r="D45" t="n">
-        <v>100.18271187</v>
+        <v>100.16291069</v>
       </c>
       <c r="E45" t="n">
-        <v>100.63208084</v>
+        <v>100.02930331</v>
       </c>
       <c r="F45" t="n">
-        <v>100.13034143</v>
+        <v>99.95665036</v>
       </c>
       <c r="G45" t="n">
-        <v>100.03050595</v>
+        <v>99.78510199999999</v>
       </c>
       <c r="H45" t="n">
-        <v>99.97699334000001</v>
+        <v>100.02521881</v>
       </c>
       <c r="I45" t="n">
-        <v>99.81837796000001</v>
+        <v>100.09835765</v>
       </c>
       <c r="J45" t="n">
-        <v>101.95460602</v>
+        <v>100.15779934</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.57579953</v>
+        <v>99.28882451</v>
       </c>
       <c r="C46" t="n">
-        <v>100.86911417</v>
+        <v>100.59815764</v>
       </c>
       <c r="D46" t="n">
-        <v>100.05863805</v>
+        <v>100.34675184</v>
       </c>
       <c r="E46" t="n">
-        <v>100.74254399</v>
+        <v>99.90496865</v>
       </c>
       <c r="F46" t="n">
-        <v>100.04430125</v>
+        <v>100.03291557</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97856197</v>
+        <v>100.04130408</v>
       </c>
       <c r="H46" t="n">
-        <v>100.00244519</v>
+        <v>99.92908654</v>
       </c>
       <c r="I46" t="n">
-        <v>100.88744419</v>
+        <v>99.81678205999999</v>
       </c>
       <c r="J46" t="n">
-        <v>102.25430916</v>
+        <v>99.82366924999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.07965066</v>
+        <v>100.11896619</v>
       </c>
       <c r="C47" t="n">
-        <v>100.04816471</v>
+        <v>100.94172019</v>
       </c>
       <c r="D47" t="n">
-        <v>100.05881106</v>
+        <v>100.33292797</v>
       </c>
       <c r="E47" t="n">
-        <v>100.79783522</v>
+        <v>100.43205183</v>
       </c>
       <c r="F47" t="n">
-        <v>99.97503167000001</v>
+        <v>100.12048855</v>
       </c>
       <c r="G47" t="n">
-        <v>100.14378668</v>
+        <v>101.59929186</v>
       </c>
       <c r="H47" t="n">
-        <v>100.0998976</v>
+        <v>100.14911319</v>
       </c>
       <c r="I47" t="n">
-        <v>100.28003387</v>
+        <v>99.61690563000001</v>
       </c>
       <c r="J47" t="n">
-        <v>102.42957732</v>
+        <v>100.57585865</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.65449303</v>
+        <v>99.76585082</v>
       </c>
       <c r="C48" t="n">
-        <v>99.09760831</v>
+        <v>101.46250696</v>
       </c>
       <c r="D48" t="n">
-        <v>100.08220425</v>
+        <v>100.18271187</v>
       </c>
       <c r="E48" t="n">
-        <v>100.30708759</v>
+        <v>100.63208084</v>
       </c>
       <c r="F48" t="n">
-        <v>99.92921509999999</v>
+        <v>100.13034143</v>
       </c>
       <c r="G48" t="n">
-        <v>99.1316417</v>
+        <v>100.03050595</v>
       </c>
       <c r="H48" t="n">
-        <v>99.88643605</v>
+        <v>99.97699334000001</v>
       </c>
       <c r="I48" t="n">
-        <v>100.34743193</v>
+        <v>99.81837796000001</v>
       </c>
       <c r="J48" t="n">
-        <v>101.48884506</v>
+        <v>101.95460602</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.14736838</v>
+        <v>99.57579953</v>
       </c>
       <c r="C49" t="n">
-        <v>99.89108679</v>
+        <v>100.86911417</v>
       </c>
       <c r="D49" t="n">
-        <v>100.14678146</v>
+        <v>100.05863805</v>
       </c>
       <c r="E49" t="n">
-        <v>100.02574328</v>
+        <v>100.74254399</v>
       </c>
       <c r="F49" t="n">
-        <v>100.05129886</v>
+        <v>100.04430125</v>
       </c>
       <c r="G49" t="n">
-        <v>100.05474367</v>
+        <v>99.97856197</v>
       </c>
       <c r="H49" t="n">
-        <v>100.13715552</v>
+        <v>100.00244519</v>
       </c>
       <c r="I49" t="n">
-        <v>99.77997209999999</v>
+        <v>100.88744419</v>
       </c>
       <c r="J49" t="n">
-        <v>99.98083195</v>
+        <v>102.25430916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>101.53588276</v>
+        <v>99.8</v>
       </c>
       <c r="C50" t="n">
-        <v>101.78966219</v>
+        <v>98.3</v>
       </c>
       <c r="D50" t="n">
-        <v>100.54109069</v>
+        <v>100.1</v>
       </c>
       <c r="E50" t="n">
-        <v>101.41045282</v>
+        <v>99.7</v>
       </c>
       <c r="F50" t="n">
-        <v>99.94638833</v>
+        <v>100.1</v>
       </c>
       <c r="G50" t="n">
-        <v>101.74493121</v>
+        <v>100.7</v>
       </c>
       <c r="H50" t="n">
-        <v>100.2695462</v>
+        <v>100.2</v>
       </c>
       <c r="I50" t="n">
-        <v>99.40231334000001</v>
+        <v>100.4</v>
       </c>
       <c r="J50" t="n">
-        <v>103.13372993</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>98.44051469</v>
+        <v>99.7</v>
       </c>
       <c r="C51" t="n">
-        <v>99.80399868000001</v>
+        <v>99.3</v>
       </c>
       <c r="D51" t="n">
-        <v>100.06659159</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>100.76342491</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>99.89844751</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>100.02262358</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H51" t="n">
-        <v>99.92607921</v>
+        <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>99.7674751</v>
+        <v>100.3</v>
       </c>
       <c r="J51" t="n">
-        <v>103.06198481</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>97.42422582</v>
+        <v>101</v>
       </c>
       <c r="C52" t="n">
-        <v>100.41654236</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>100.16152693</v>
+        <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>98.79790441999999</v>
+        <v>100.7</v>
       </c>
       <c r="F52" t="n">
-        <v>99.80326218</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>99.94111733</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>99.84786882</v>
+        <v>100.1</v>
       </c>
       <c r="I52" t="n">
-        <v>99.87074799</v>
+        <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>97.29992967</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>98.86207722</v>
+        <v>101.53588276</v>
       </c>
       <c r="C53" t="n">
-        <v>99.82539223000001</v>
+        <v>101.78966219</v>
       </c>
       <c r="D53" t="n">
-        <v>100.12218085</v>
+        <v>100.54109069</v>
       </c>
       <c r="E53" t="n">
-        <v>99.19265154999999</v>
+        <v>101.41045282</v>
       </c>
       <c r="F53" t="n">
-        <v>99.86458795999999</v>
+        <v>99.94638833</v>
       </c>
       <c r="G53" t="n">
-        <v>99.77061277</v>
+        <v>101.74493121</v>
       </c>
       <c r="H53" t="n">
-        <v>99.91449708</v>
+        <v>100.2695462</v>
       </c>
       <c r="I53" t="n">
-        <v>99.97615743</v>
+        <v>99.40231334000001</v>
       </c>
       <c r="J53" t="n">
-        <v>98.04874173</v>
+        <v>103.13372993</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.84852194</v>
+        <v>98.44051469</v>
       </c>
       <c r="C54" t="n">
-        <v>100.5012853</v>
+        <v>99.80399868000001</v>
       </c>
       <c r="D54" t="n">
-        <v>99.93004937000001</v>
+        <v>100.06659159</v>
       </c>
       <c r="E54" t="n">
-        <v>99.25644081</v>
+        <v>100.76342491</v>
       </c>
       <c r="F54" t="n">
-        <v>99.84783618</v>
+        <v>99.89844751</v>
       </c>
       <c r="G54" t="n">
-        <v>100.01799753</v>
+        <v>100.02262358</v>
       </c>
       <c r="H54" t="n">
-        <v>100.02464066</v>
+        <v>99.92607921</v>
       </c>
       <c r="I54" t="n">
-        <v>100.14582077</v>
+        <v>99.7674751</v>
       </c>
       <c r="J54" t="n">
-        <v>97.73382357</v>
+        <v>103.06198481</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.7306202</v>
+        <v>97.42422582</v>
       </c>
       <c r="C55" t="n">
-        <v>100.38907437</v>
+        <v>100.41654236</v>
       </c>
       <c r="D55" t="n">
-        <v>100.00873381</v>
+        <v>100.16152693</v>
       </c>
       <c r="E55" t="n">
-        <v>99.89820122</v>
+        <v>98.79790441999999</v>
       </c>
       <c r="F55" t="n">
-        <v>99.81949132</v>
+        <v>99.80326218</v>
       </c>
       <c r="G55" t="n">
-        <v>99.6616808</v>
+        <v>99.94111733</v>
       </c>
       <c r="H55" t="n">
-        <v>99.86700092</v>
+        <v>99.84786882</v>
       </c>
       <c r="I55" t="n">
-        <v>99.71271652999999</v>
+        <v>99.87074799</v>
       </c>
       <c r="J55" t="n">
-        <v>100.07046174</v>
+        <v>97.29992967</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.32934283</v>
+        <v>98.86207722</v>
       </c>
       <c r="C56" t="n">
-        <v>100.95247882</v>
+        <v>99.82539223000001</v>
       </c>
       <c r="D56" t="n">
-        <v>100.05215378</v>
+        <v>100.12218085</v>
       </c>
       <c r="E56" t="n">
-        <v>100.55693588</v>
+        <v>99.19265154999999</v>
       </c>
       <c r="F56" t="n">
-        <v>99.95988948</v>
+        <v>99.86458795999999</v>
       </c>
       <c r="G56" t="n">
-        <v>99.69893127</v>
+        <v>99.77061277</v>
       </c>
       <c r="H56" t="n">
-        <v>100.04957869</v>
+        <v>99.91449708</v>
       </c>
       <c r="I56" t="n">
-        <v>99.48646229000001</v>
+        <v>99.97615743</v>
       </c>
       <c r="J56" t="n">
-        <v>101.80880989</v>
+        <v>98.04874173</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100.290817</v>
+        <v>99.84852194</v>
       </c>
       <c r="C57" t="n">
-        <v>102.55999598</v>
+        <v>100.5012853</v>
       </c>
       <c r="D57" t="n">
-        <v>100.08593413</v>
+        <v>99.93004937000001</v>
       </c>
       <c r="E57" t="n">
-        <v>100.38605958</v>
+        <v>99.25644081</v>
       </c>
       <c r="F57" t="n">
-        <v>100.09145282</v>
+        <v>99.84783618</v>
       </c>
       <c r="G57" t="n">
-        <v>99.63061278000001</v>
+        <v>100.01799753</v>
       </c>
       <c r="H57" t="n">
-        <v>99.97839947999999</v>
+        <v>100.02464066</v>
       </c>
       <c r="I57" t="n">
-        <v>99.86880445</v>
+        <v>100.14582077</v>
       </c>
       <c r="J57" t="n">
-        <v>100.93885206</v>
+        <v>97.73382357</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.93181751</v>
+        <v>99.7306202</v>
       </c>
       <c r="C58" t="n">
-        <v>98.90519020000001</v>
+        <v>100.38907437</v>
       </c>
       <c r="D58" t="n">
-        <v>100.0135496</v>
+        <v>100.00873381</v>
       </c>
       <c r="E58" t="n">
-        <v>100.23192207</v>
+        <v>99.89820122</v>
       </c>
       <c r="F58" t="n">
-        <v>100.0122212</v>
+        <v>99.81949132</v>
       </c>
       <c r="G58" t="n">
-        <v>100.74109091</v>
+        <v>99.6616808</v>
       </c>
       <c r="H58" t="n">
-        <v>99.92678754000001</v>
+        <v>99.86700092</v>
       </c>
       <c r="I58" t="n">
-        <v>100.9433427</v>
+        <v>99.71271652999999</v>
       </c>
       <c r="J58" t="n">
-        <v>100.36909367</v>
+        <v>100.07046174</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.8</v>
+        <v>100.32934283</v>
       </c>
       <c r="C59" t="n">
-        <v>98.3</v>
+        <v>100.95247882</v>
       </c>
       <c r="D59" t="n">
-        <v>100.1</v>
+        <v>100.05215378</v>
       </c>
       <c r="E59" t="n">
-        <v>99.7</v>
+        <v>100.55693588</v>
       </c>
       <c r="F59" t="n">
-        <v>100.1</v>
+        <v>99.95988948</v>
       </c>
       <c r="G59" t="n">
-        <v>100.7</v>
+        <v>99.69893127</v>
       </c>
       <c r="H59" t="n">
-        <v>100.2</v>
+        <v>100.04957869</v>
       </c>
       <c r="I59" t="n">
-        <v>100.4</v>
+        <v>99.48646229000001</v>
       </c>
       <c r="J59" t="n">
-        <v>98.90000000000001</v>
+        <v>101.80880989</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.7</v>
+        <v>100.290817</v>
       </c>
       <c r="C60" t="n">
-        <v>99.3</v>
+        <v>102.55999598</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>100.08593413</v>
       </c>
       <c r="E60" t="n">
-        <v>99.40000000000001</v>
+        <v>100.38605958</v>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>100.09145282</v>
       </c>
       <c r="G60" t="n">
-        <v>99.09999999999999</v>
+        <v>99.63061278000001</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>99.97839947999999</v>
       </c>
       <c r="I60" t="n">
-        <v>100.3</v>
+        <v>99.86880445</v>
       </c>
       <c r="J60" t="n">
-        <v>98.5</v>
+        <v>100.93885206</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>101</v>
+        <v>99.93181751</v>
       </c>
       <c r="C61" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90519020000001</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>100.0135496</v>
       </c>
       <c r="E61" t="n">
-        <v>100.7</v>
+        <v>100.23192207</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>100.0122212</v>
       </c>
       <c r="G61" t="n">
-        <v>99.90000000000001</v>
+        <v>100.74109091</v>
       </c>
       <c r="H61" t="n">
-        <v>100.1</v>
+        <v>99.92678754000001</v>
       </c>
       <c r="I61" t="n">
-        <v>100</v>
+        <v>100.9433427</v>
       </c>
       <c r="J61" t="n">
-        <v>101.9</v>
+        <v>100.36909367</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="C62" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="D62" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="E62" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="F62" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="G62" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="H62" t="n">
         <v>100.3</v>
       </c>
       <c r="I62" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="J62" t="n">
-        <v>102.8</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
       <c r="C63" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>100</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100</v>
+      </c>
+      <c r="G63" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="H63" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D63" t="n">
-        <v>100</v>
-      </c>
-      <c r="E63" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G63" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="H63" t="n">
-        <v>100.1</v>
-      </c>
       <c r="I63" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="J63" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>101.4</v>
+        <v>98.7</v>
       </c>
       <c r="C64" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="D64" t="n">
         <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="F64" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>100</v>
+      </c>
+      <c r="H64" t="n">
         <v>100.3</v>
       </c>
-      <c r="G64" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H64" t="n">
-        <v>99.8</v>
-      </c>
       <c r="I64" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="J64" t="n">
-        <v>97.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.5</v>
+        <v>100.9</v>
       </c>
       <c r="C65" t="n">
         <v>100.5</v>
       </c>
       <c r="D65" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E65" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="F65" t="n">
         <v>100.1</v>
       </c>
       <c r="G65" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="H65" t="n">
         <v>100.3</v>
       </c>
       <c r="I65" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>98.5</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.4</v>
+        <v>101.1</v>
       </c>
       <c r="C66" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
         <v>100.6</v>
       </c>
-      <c r="D66" t="n">
-        <v>100</v>
-      </c>
-      <c r="E66" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="F66" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="G66" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="H66" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I66" t="n">
-        <v>100.3</v>
+        <v>99.5</v>
       </c>
       <c r="J66" t="n">
-        <v>99.09999999999999</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.1</v>
+        <v>101.4</v>
       </c>
       <c r="C67" t="n">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="D67" t="n">
         <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F67" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="G67" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="H67" t="n">
         <v>99.8</v>
       </c>
       <c r="I67" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="J67" t="n">
-        <v>98.7</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>101.6</v>
+        <v>100.5</v>
       </c>
       <c r="C68" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="D68" t="n">
         <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="F68" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="G68" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="H68" t="n">
         <v>100.3</v>
       </c>
       <c r="I68" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J68" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C69" t="n">
-        <v>99</v>
+        <v>100.6</v>
       </c>
       <c r="D69" t="n">
         <v>100</v>
       </c>
       <c r="E69" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F69" t="n">
         <v>100.1</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="H69" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="J69" t="n">
-        <v>100.5</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B70" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G70" t="n">
         <v>99.7</v>
       </c>
-      <c r="C70" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="D70" t="n">
-        <v>100</v>
-      </c>
-      <c r="E70" t="n">
-        <v>100</v>
-      </c>
-      <c r="F70" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="G70" t="n">
-        <v>100.7</v>
-      </c>
       <c r="H70" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I70" t="n">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="J70" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>101</v>
+        <v>101.6</v>
       </c>
       <c r="C71" t="n">
         <v>100.1</v>
       </c>
       <c r="D71" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" t="n">
         <v>100.3</v>
       </c>
-      <c r="E71" t="n">
-        <v>100.7</v>
-      </c>
       <c r="F71" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="G71" t="n">
-        <v>100.3</v>
+        <v>101.2</v>
       </c>
       <c r="H71" t="n">
         <v>100.3</v>
       </c>
       <c r="I71" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>101.3</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="D72" t="n">
         <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="G72" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="H72" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="I72" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B73" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>100</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H75" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
         <v>98.7</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C76" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G77" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>100</v>
+      </c>
+      <c r="I77" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J77" t="n">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>101</v>
+      </c>
+      <c r="D79" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H79" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G80" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I80" t="n">
         <v>99.8</v>
       </c>
-      <c r="D73" t="n">
-        <v>100</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="J80" t="n">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>100</v>
+      </c>
+      <c r="E81" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F81" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100</v>
+      </c>
+      <c r="D82" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100</v>
+      </c>
+      <c r="G82" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H83" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I83" t="n">
         <v>99.7</v>
       </c>
-      <c r="F73" t="n">
+      <c r="J83" t="n">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>100</v>
+      </c>
+      <c r="E84" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="G73" t="n">
-        <v>100</v>
-      </c>
-      <c r="H73" t="n">
+      <c r="F84" t="n">
+        <v>100</v>
+      </c>
+      <c r="G84" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>100</v>
+      </c>
+      <c r="I84" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J84" t="n">
         <v>100.3</v>
       </c>
-      <c r="I73" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J73" t="n">
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C85" t="n">
         <v>99.7</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H85" t="n">
+        <v>100</v>
+      </c>
+      <c r="I85" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>100</v>
+      </c>
+      <c r="G86" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>100</v>
+      </c>
+      <c r="I86" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="J86" t="n">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>99</v>
+      </c>
+      <c r="H87" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I87" t="n">
+        <v>100</v>
+      </c>
+      <c r="J87" t="n">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100</v>
+      </c>
+      <c r="G88" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100</v>
+      </c>
+      <c r="G89" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="H89" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>100</v>
+      </c>
+      <c r="I90" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H91" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>101</v>
+      </c>
+      <c r="D92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="H92" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I92" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
   </sheetData>
